--- a/QuantLibXL/Data2/XLS/EUR/EUR_MxContributorOIS.xlsx
+++ b/QuantLibXL/Data2/XLS/EUR/EUR_MxContributorOIS.xlsx
@@ -486,20 +486,24 @@
     <font>
       <sz val="8"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -526,6 +530,7 @@
     <font>
       <sz val="8"/>
       <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="8">
@@ -825,583 +830,591 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>-3.3000000000000002E-2</v>
+        <v>-0.129</v>
         <stp/>
         <stp>_x000C_EUROISDDS15M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M25" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13</v>
         <stp/>
         <stp>_x000C_EUROISDDS14M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M24" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.128</v>
         <stp/>
         <stp>_x000C_EUROISDDS17M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M27" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.129</v>
         <stp/>
         <stp>_x000C_EUROISDDS16M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M26" s="3"/>
       </tp>
       <tp>
-        <v>-3.1E-2</v>
+        <v>-0.13100000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS11M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M21" s="3"/>
       </tp>
       <tp>
-        <v>-2.8000000000000001E-2</v>
+        <v>-0.13200000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS10M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M20" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13</v>
         <stp/>
         <stp>_x000C_EUROISDDS13M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M23" s="3"/>
       </tp>
       <tp>
-        <v>-3.1E-2</v>
+        <v>-0.126</v>
         <stp/>
         <stp>_x000C_EUROISDDS19M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M29" s="3"/>
       </tp>
       <tp>
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.127</v>
         <stp/>
         <stp>_x000C_EUROISDDS18M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M28" s="3"/>
       </tp>
       <tp>
-        <v>-3.1E-2</v>
+        <v>-0.122</v>
         <stp/>
         <stp>_x000C_EUROISDDS21M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M31" s="3"/>
       </tp>
       <tp>
-        <v>-3.1E-2</v>
+        <v>-0.124</v>
         <stp/>
         <stp>_x000C_EUROISDDS20M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M30" s="3"/>
       </tp>
       <tp>
-        <v>-2.8000000000000001E-2</v>
+        <v>-0.11799999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS23M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M33" s="3"/>
       </tp>
       <tp>
-        <v>-2.9000000000000001E-2</v>
+        <v>-0.12</v>
         <stp/>
         <stp>_x000C_EUROISDDS22M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M32" s="3"/>
       </tp>
-      <tp>
-        <v>1.667</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>1.206</v>
         <stp/>
         <stp>_x000C_EUROISDDS40Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M64" s="3"/>
       </tp>
       <tp>
-        <v>1.696</v>
+        <v>1.1759999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS50Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M65" s="3"/>
       </tp>
       <tp>
-        <v>1.72</v>
+        <v>1.173</v>
         <stp/>
         <stp>_x000C_EUROISDDS60Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M66" s="3"/>
       </tp>
       <tp>
-        <v>1.2050000000000001</v>
+        <v>0.94499999999999995</v>
         <stp/>
         <stp>_x000C_EUROISDDS15Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M47" s="3"/>
       </tp>
       <tp>
-        <v>1.1379999999999999</v>
+        <v>0.90199999999999991</v>
         <stp/>
         <stp>_x000C_EUROISDDS14Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M46" s="3"/>
       </tp>
       <tp>
-        <v>1.3149999999999999</v>
+        <v>1.014</v>
         <stp/>
         <stp>_x000C_EUROISDDS17Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M49" s="3"/>
       </tp>
       <tp>
-        <v>1.264</v>
+        <v>0.98199999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS16Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M48" s="3"/>
       </tp>
       <tp>
-        <v>0.88200000000000001</v>
+        <v>0.71900000000000008</v>
         <stp/>
         <stp>_x000C_EUROISDDS11Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M43" s="3"/>
       </tp>
       <tp>
-        <v>0.77800000000000002</v>
+        <v>0.64</v>
         <stp/>
         <stp>_x000C_EUROISDDS10Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M42" s="3"/>
       </tp>
       <tp>
-        <v>1.0620000000000001</v>
+        <v>0.85099999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS13Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M45" s="3"/>
       </tp>
       <tp>
-        <v>0.97699999999999998</v>
+        <v>0.79</v>
         <stp/>
         <stp>_x000C_EUROISDDS12Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M44" s="3"/>
       </tp>
       <tp>
-        <v>1.399</v>
+        <v>1.0640000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS19Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M51" s="3"/>
       </tp>
       <tp>
-        <v>1.36</v>
+        <v>1.0409999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS18Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M50" s="3"/>
       </tp>
       <tp>
-        <v>1.5389999999999999</v>
+        <v>1.133</v>
         <stp/>
         <stp>_x000C_EUROISDDS25Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M57" s="3"/>
       </tp>
       <tp>
-        <v>1.524</v>
+        <v>1.1259999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS24Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M56" s="3"/>
       </tp>
       <tp>
-        <v>1.5629999999999999</v>
+        <v>1.147</v>
         <stp/>
         <stp>_x000C_EUROISDDS27Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M59" s="3"/>
       </tp>
       <tp>
-        <v>1.552</v>
+        <v>1.1399999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS26Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M58" s="3"/>
       </tp>
       <tp>
-        <v>1.4610000000000001</v>
+        <v>1.097</v>
         <stp/>
         <stp>_x000C_EUROISDDS21Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M53" s="3"/>
       </tp>
       <tp>
-        <v>1.4319999999999999</v>
+        <v>1.0820000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS20Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M52" s="3"/>
       </tp>
       <tp>
-        <v>1.506</v>
+        <v>1.1179999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS23Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M55" s="3"/>
       </tp>
       <tp>
-        <v>1.4850000000000001</v>
+        <v>1.1080000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS22Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M54" s="3"/>
       </tp>
       <tp>
-        <v>1.5820000000000001</v>
+        <v>1.1599999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS29Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M61" s="3"/>
       </tp>
       <tp>
-        <v>1.573</v>
+        <v>1.1539999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS28Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M60" s="3"/>
       </tp>
       <tp>
-        <v>1.633</v>
+        <v>1.1950000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS35Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M63" s="3"/>
       </tp>
       <tp>
-        <v>1.591</v>
+        <v>1.167</v>
         <stp/>
         <stp>_x000C_EUROISDDS30Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M62" s="3"/>
       </tp>
-      <tp>
-        <v>1.36</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>1.0409999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS18Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N50" s="3"/>
       </tp>
       <tp>
-        <v>1.399</v>
+        <v>1.0640000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS19Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N51" s="3"/>
       </tp>
       <tp>
-        <v>1.1379999999999999</v>
+        <v>0.90199999999999991</v>
         <stp/>
         <stp>_x000C_EUROISDDS14Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N46" s="3"/>
       </tp>
       <tp>
-        <v>1.2050000000000001</v>
+        <v>0.94499999999999995</v>
         <stp/>
         <stp>_x000C_EUROISDDS15Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N47" s="3"/>
       </tp>
       <tp>
-        <v>1.264</v>
+        <v>0.98199999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS16Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N48" s="3"/>
       </tp>
       <tp>
-        <v>1.3149999999999999</v>
+        <v>1.014</v>
         <stp/>
         <stp>_x000C_EUROISDDS17Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N49" s="3"/>
       </tp>
       <tp>
-        <v>0.77800000000000002</v>
+        <v>0.64</v>
         <stp/>
         <stp>_x000C_EUROISDDS10Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N42" s="3"/>
       </tp>
       <tp>
-        <v>0.88200000000000001</v>
+        <v>0.71900000000000008</v>
         <stp/>
         <stp>_x000C_EUROISDDS11Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N43" s="3"/>
       </tp>
       <tp>
-        <v>0.97699999999999998</v>
+        <v>0.79</v>
         <stp/>
         <stp>_x000C_EUROISDDS12Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N44" s="3"/>
       </tp>
       <tp>
-        <v>1.0620000000000001</v>
+        <v>0.85099999999999998</v>
         <stp/>
         <stp>_x000C_EUROISDDS13Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N45" s="3"/>
       </tp>
       <tp>
-        <v>1.6339999999999999</v>
+        <v>1.1950000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS35Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N63" s="3"/>
       </tp>
       <tp>
-        <v>1.591</v>
+        <v>1.167</v>
         <stp/>
         <stp>_x000C_EUROISDDS30Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N62" s="3"/>
       </tp>
       <tp>
-        <v>1.573</v>
+        <v>1.1539999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS28Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N60" s="3"/>
       </tp>
       <tp>
-        <v>1.5820000000000001</v>
+        <v>1.1599999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS29Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N61" s="3"/>
       </tp>
       <tp>
-        <v>1.524</v>
+        <v>1.1259999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS24Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N56" s="3"/>
       </tp>
       <tp>
-        <v>1.5389999999999999</v>
+        <v>1.133</v>
         <stp/>
         <stp>_x000C_EUROISDDS25Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N57" s="3"/>
       </tp>
       <tp>
-        <v>1.552</v>
+        <v>1.1399999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS26Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N58" s="3"/>
       </tp>
       <tp>
-        <v>1.5629999999999999</v>
+        <v>1.147</v>
         <stp/>
         <stp>_x000C_EUROISDDS27Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N59" s="3"/>
       </tp>
       <tp>
-        <v>1.4319999999999999</v>
+        <v>1.0820000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS20Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N52" s="3"/>
       </tp>
       <tp>
-        <v>1.4610000000000001</v>
+        <v>1.097</v>
         <stp/>
         <stp>_x000C_EUROISDDS21Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N53" s="3"/>
       </tp>
       <tp>
-        <v>1.4850000000000001</v>
+        <v>1.1080000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS22Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N54" s="3"/>
       </tp>
       <tp>
-        <v>1.506</v>
+        <v>1.1179999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS23Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N55" s="3"/>
       </tp>
       <tp>
-        <v>1.694</v>
+        <v>1.1759999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS50Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N65" s="3"/>
       </tp>
       <tp>
-        <v>1.667</v>
+        <v>1.206</v>
         <stp/>
         <stp>_x000C_EUROISDDS40Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N64" s="3"/>
       </tp>
       <tp>
-        <v>1.72</v>
+        <v>1.173</v>
         <stp/>
         <stp>_x000C_EUROISDDS60Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N66" s="3"/>
       </tp>
-      <tp>
-        <v>-3.4000000000000002E-2</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>-0.127</v>
         <stp/>
         <stp>_x000C_EUROISDDS18M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N28" s="3"/>
       </tp>
       <tp>
-        <v>-3.1E-2</v>
+        <v>-0.126</v>
         <stp/>
         <stp>_x000C_EUROISDDS19M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N29" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13</v>
         <stp/>
         <stp>_x000C_EUROISDDS14M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N24" s="3"/>
       </tp>
       <tp>
-        <v>-3.3000000000000002E-2</v>
+        <v>-0.129</v>
         <stp/>
         <stp>_x000C_EUROISDDS15M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N25" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.129</v>
         <stp/>
         <stp>_x000C_EUROISDDS16M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N26" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.128</v>
         <stp/>
         <stp>_x000C_EUROISDDS17M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N27" s="3"/>
       </tp>
       <tp>
-        <v>-2.8000000000000001E-2</v>
+        <v>-0.13200000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS10M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N20" s="3"/>
       </tp>
       <tp>
-        <v>-3.1E-2</v>
+        <v>-0.13100000000000001</v>
         <stp/>
         <stp>_x000C_EUROISDDS11M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N21" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13</v>
         <stp/>
         <stp>_x000C_EUROISDDS13M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N23" s="3"/>
       </tp>
       <tp>
-        <v>-3.1E-2</v>
+        <v>-0.124</v>
         <stp/>
         <stp>_x000C_EUROISDDS20M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N30" s="3"/>
       </tp>
       <tp>
-        <v>-3.1E-2</v>
+        <v>-0.122</v>
         <stp/>
         <stp>_x000C_EUROISDDS21M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N31" s="3"/>
       </tp>
       <tp>
-        <v>-2.9000000000000001E-2</v>
+        <v>-0.12</v>
         <stp/>
         <stp>_x000C_EUROISDDS22M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N32" s="3"/>
       </tp>
       <tp>
-        <v>-2.8000000000000001E-2</v>
+        <v>-0.11799999999999999</v>
         <stp/>
         <stp>_x000C_EUROISDDS23M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N33" s="3"/>
       </tp>
-      <tp>
-        <v>0.53300000000000003</v>
+    </main>
+    <main first="pldatasource.rtgetrtdserver">
+      <tp>
+        <v>0.45199999999999996</v>
         <stp/>
         <stp>_x000B_EUROISDDS8Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N40" s="3"/>
       </tp>
       <tp>
-        <v>-2.4E-2</v>
+        <v>-0.13100000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS8M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N18" s="3"/>
       </tp>
       <tp>
-        <v>0.65900000000000003</v>
+        <v>0.55199999999999994</v>
         <stp/>
         <stp>_x000B_EUROISDDS9Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N41" s="3"/>
       </tp>
       <tp>
-        <v>-2.5999999999999999E-2</v>
+        <v>-0.13200000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS9M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N19" s="3"/>
       </tp>
       <tp>
-        <v>6.9999999999999993E-3</v>
+        <v>-0.11899999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS2W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N9" s="3"/>
       </tp>
       <tp>
-        <v>-2.7E-2</v>
+        <v>-0.11599999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS2Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N34" s="3"/>
       </tp>
       <tp>
-        <v>-6.0000000000000001E-3</v>
+        <v>-0.123</v>
         <stp/>
         <stp>_x000B_EUROISDDS2M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N12" s="3"/>
       </tp>
       <tp>
-        <v>1E-3</v>
+        <v>-0.11899999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS3W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N10" s="3"/>
       </tp>
       <tp>
-        <v>1.2E-2</v>
+        <v>-6.7999999999999991E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N35" s="3"/>
       </tp>
       <tp>
-        <v>-1.1000000000000001E-2</v>
+        <v>-0.125</v>
         <stp/>
         <stp>_x000B_EUROISDDS3M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N13" s="3"/>
       </tp>
       <tp>
-        <v>-0.01</v>
+        <v>-0.121</v>
         <stp/>
         <stp>_x000B_EUROISDDS1W_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N8" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13100000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS1Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N22" s="3"/>
       </tp>
       <tp>
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.11699999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS1M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N11" s="3"/>
       </tp>
       <tp>
-        <v>0.27600000000000002</v>
+        <v>0.22599999999999998</v>
         <stp/>
         <stp>_x000B_EUROISDDS6Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N38" s="3"/>
       </tp>
       <tp>
-        <v>-1.6E-2</v>
+        <v>-0.13100000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS6M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N16" s="3"/>
       </tp>
       <tp>
-        <v>0.40200000000000002</v>
+        <v>0.34199999999999997</v>
         <stp/>
         <stp>_x000B_EUROISDDS7Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N39" s="3"/>
       </tp>
       <tp>
-        <v>-0.02</v>
+        <v>-0.128</v>
         <stp/>
         <stp>_x000B_EUROISDDS7M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N17" s="3"/>
       </tp>
       <tp>
-        <v>7.6999999999999999E-2</v>
+        <v>1.2E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N36" s="3"/>
       </tp>
       <tp>
-        <v>-1.7000000000000001E-2</v>
+        <v>-0.127</v>
         <stp/>
         <stp>_x000B_EUROISDDS4M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N14" s="3"/>
       </tp>
       <tp>
-        <v>0.16600000000000001</v>
+        <v>0.11200000000000002</v>
         <stp/>
         <stp>_x000B_EUROISDDS5Y_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N37" s="3"/>
       </tp>
       <tp>
-        <v>-1.4E-2</v>
+        <v>-0.128</v>
         <stp/>
         <stp>_x000B_EUROISDDS5M_x0003_BID_x0003_DDSÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="N15" s="3"/>
@@ -1443,127 +1456,127 @@
         <tr r="M6" s="3"/>
       </tp>
       <tp>
-        <v>-1.1000000000000001E-2</v>
+        <v>-0.125</v>
         <stp/>
         <stp>_x000B_EUROISDDS3M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M13" s="3"/>
       </tp>
       <tp>
-        <v>1E-3</v>
+        <v>-0.11899999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS3W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M10" s="3"/>
       </tp>
       <tp>
-        <v>1.2E-2</v>
+        <v>-6.7999999999999991E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS3Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M35" s="3"/>
       </tp>
       <tp>
-        <v>-6.0000000000000001E-3</v>
+        <v>-0.123</v>
         <stp/>
         <stp>_x000B_EUROISDDS2M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M12" s="3"/>
       </tp>
       <tp>
-        <v>6.9999999999999993E-3</v>
+        <v>-0.11899999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS2W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M9" s="3"/>
       </tp>
       <tp>
-        <v>-2.7E-2</v>
+        <v>-0.11599999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS2Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M34" s="3"/>
       </tp>
       <tp>
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.11699999999999999</v>
         <stp/>
         <stp>_x000B_EUROISDDS1M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M11" s="3"/>
       </tp>
       <tp>
-        <v>-0.01</v>
+        <v>-0.121</v>
         <stp/>
         <stp>_x000B_EUROISDDS1W_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M8" s="3"/>
       </tp>
       <tp>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13100000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS1Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M22" s="3"/>
       </tp>
       <tp>
-        <v>-0.02</v>
+        <v>-0.128</v>
         <stp/>
         <stp>_x000B_EUROISDDS7M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M17" s="3"/>
       </tp>
       <tp>
-        <v>0.40200000000000002</v>
+        <v>0.34199999999999997</v>
         <stp/>
         <stp>_x000B_EUROISDDS7Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M39" s="3"/>
       </tp>
       <tp>
-        <v>-1.6E-2</v>
+        <v>-0.13100000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS6M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M16" s="3"/>
       </tp>
       <tp>
-        <v>0.27600000000000002</v>
+        <v>0.22599999999999998</v>
         <stp/>
         <stp>_x000B_EUROISDDS6Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M38" s="3"/>
       </tp>
       <tp>
-        <v>-1.4E-2</v>
+        <v>-0.128</v>
         <stp/>
         <stp>_x000B_EUROISDDS5M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M15" s="3"/>
       </tp>
       <tp>
-        <v>0.16600000000000001</v>
+        <v>0.11200000000000002</v>
         <stp/>
         <stp>_x000B_EUROISDDS5Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M37" s="3"/>
       </tp>
       <tp>
-        <v>-1.7000000000000001E-2</v>
+        <v>-0.127</v>
         <stp/>
         <stp>_x000B_EUROISDDS4M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M14" s="3"/>
       </tp>
       <tp>
-        <v>7.6999999999999999E-2</v>
+        <v>1.2E-2</v>
         <stp/>
         <stp>_x000B_EUROISDDS4Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M36" s="3"/>
       </tp>
       <tp>
-        <v>-2.5999999999999999E-2</v>
+        <v>-0.13200000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS9M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M19" s="3"/>
       </tp>
       <tp>
-        <v>0.65900000000000003</v>
+        <v>0.55199999999999994</v>
         <stp/>
         <stp>_x000B_EUROISDDS9Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M41" s="3"/>
       </tp>
       <tp>
-        <v>-2.4E-2</v>
+        <v>-0.13100000000000001</v>
         <stp/>
         <stp>_x000B_EUROISDDS8M_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M18" s="3"/>
       </tp>
       <tp>
-        <v>0.53300000000000003</v>
+        <v>0.45199999999999996</v>
         <stp/>
         <stp>_x000B_EUROISDDS8Y_x0003_BID_x0007_DTSIMI1ÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="M40" s="3"/>
@@ -1711,70 +1724,70 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.97E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.0500000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0100000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1199999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.2899999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.4000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.48E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.5200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.540000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.5500000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.5500000000000011E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.530000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.4999999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.4600000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.3200000000000009E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.080000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.8999999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.7500000000000016E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.5300000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.3699999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.2499999999999994E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,70 +1902,70 @@
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9011746193002379E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.9609794024797009E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.0170497204826873E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.0694763203576256E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.1183679940151991E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.2810926518035601E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.3976284489873319E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.4761752631573307E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.5240524665860863E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.5475268056079302E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.5518496828349922E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.5413627337061745E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.5196196780599488E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>2.4895045308236108E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.4533388463311235E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2.325204610730598E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.1026138415487011E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.9093274957283678E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.7522843703577185E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.5217436738351785E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1.3619432992116804E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1.2436552752126443E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1967,11 +1980,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153928064"/>
-        <c:axId val="153929984"/>
+        <c:axId val="155828224"/>
+        <c:axId val="155829760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153928064"/>
+        <c:axId val="155828224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -2007,12 +2020,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153929984"/>
+        <c:crossAx val="155829760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153929984"/>
+        <c:axId val="155829760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.01"/>
@@ -2059,7 +2072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153928064"/>
+        <c:crossAx val="155828224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2158,8 +2171,10 @@
     <sheetNames>
       <sheetName val="General Settings"/>
       <sheetName val="Euribor"/>
+      <sheetName val="EuriborSwapIsdaFixA"/>
       <sheetName val="BasisSwap1MxM"/>
       <sheetName val="BasisSwap3M6M"/>
+      <sheetName val="BasisSwapEON3M"/>
       <sheetName val="BasisSwapxM12M"/>
       <sheetName val="Deposits"/>
       <sheetName val="FRA"/>
@@ -2168,7 +2183,10 @@
       <sheetName val="ImmFra6M "/>
       <sheetName val="FuturesHWConvAdj"/>
       <sheetName val="OIS"/>
-      <sheetName val="Swaps1M"/>
+      <sheetName val="ECB OIS"/>
+      <sheetName val="IMM OIS"/>
+      <sheetName val="Swaps1M(&lt;1Y)"/>
+      <sheetName val="Swap1M"/>
       <sheetName val="SwapsIMMDated"/>
       <sheetName val="Swap3M"/>
       <sheetName val="ON"/>
@@ -2176,8 +2194,12 @@
       <sheetName val="ForwardSwap6M"/>
       <sheetName val="1M (3)"/>
       <sheetName val="3M (4)"/>
+      <sheetName val="ON BASIS"/>
       <sheetName val="6M (3)"/>
       <sheetName val="1Y (3)"/>
+      <sheetName val="Euribor 3M Time Series"/>
+      <sheetName val="Euribor 6M Time Series"/>
+      <sheetName val="EuriborSwapIsdaFixA1Y"/>
     </sheetNames>
     <definedNames>
       <definedName name="TriggerCounter" refersTo="='General Settings'!$D$6"/>
@@ -2186,31 +2208,208 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>1807</v>
+            <v>7</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="2">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EUR6M#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EURTND_Quote#0000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EUR2x5F_Quote</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>M5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Future Code</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>M5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>2W</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>OIS</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>Z5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>X1S</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="17">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>1E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="18">
+        <row r="6">
+          <cell r="D6">
+            <v>12</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="19">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="22">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>EUR1F2Y_Quote</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="23">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>1E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="24">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="25">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>3E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="26">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>6E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="27">
+        <row r="6">
+          <cell r="D6" t="str">
+            <v>12E</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="6">
+          <cell r="D6">
+            <v>42150</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="29">
+        <row r="6">
+          <cell r="D6">
+            <v>42150</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="30">
+        <row r="6">
+          <cell r="D6">
+            <v>42151</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2524,7 +2723,7 @@
     <row r="1" spans="2:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="str">
         <f>_xll.qlxlVersion(TRUE,EvaluationDate)</f>
-        <v>QuantLibXL 1.4.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Mar  3 2014 10:58:57</v>
+        <v>QuantLibXL 1.6.0 - MS VC++ (version unknown) - Multithreaded Dynamic Runtime library - Release Configuration - May 28 2015 09:37:29</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="16.5" x14ac:dyDescent="0.3">
@@ -2605,7 +2804,9 @@
       <c r="C11" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D11" s="17"/>
+      <c r="D11" s="17">
+        <v>42152.429780092592</v>
+      </c>
       <c r="E11" s="37"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.2">
@@ -2615,7 +2816,7 @@
       </c>
       <c r="D12" s="17">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>41737</v>
+        <v>42152</v>
       </c>
       <c r="E12" s="10"/>
     </row>
@@ -2626,7 +2827,7 @@
       </c>
       <c r="D13" s="18">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,"1d","following",FALSE)</f>
-        <v>41738</v>
+        <v>42153</v>
       </c>
       <c r="E13" s="10"/>
     </row>
@@ -2647,7 +2848,7 @@
       </c>
       <c r="D15" s="18">
         <f>_xll.qlCalendarAdvance(Calendar,EvaluationDate,SettlementDays&amp;"d","following",FALSE)</f>
-        <v>41739</v>
+        <v>42156</v>
       </c>
       <c r="E15" s="10"/>
     </row>
@@ -2658,7 +2859,7 @@
       </c>
       <c r="D16" s="38">
         <f>[1]!TriggerCounter</f>
-        <v>1807</v>
+        <v>7</v>
       </c>
       <c r="E16" s="10"/>
     </row>
@@ -2733,9 +2934,9 @@
       <c r="E3" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="3" t="e">
-        <f ca="1">_xll.qlCubicInterpolation(,F11:F32,E11:E32,F1,F2)</f>
-        <v>#NAME?</v>
+      <c r="F3" s="3" t="str">
+        <f>_xll.qlCubicInterpolation(,F11:F32,E11:E32,F1,F2)</f>
+        <v>obj_00a5f#0005</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2743,9 +2944,9 @@
       <c r="E4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F4" t="e">
-        <f ca="1">_xll.qlAbcdInterpolation(,$F11:$F32,$G11:$G32,G36,G37,G38,G39,,,,FALSE)</f>
-        <v>#NAME?</v>
+      <c r="F4" t="str">
+        <f>_xll.qlAbcdInterpolation(,$F11:$F32,$G11:$G32,G36,G37,G38,G39,,,,FALSE)</f>
+        <v>obj_00a60#0005</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2765,9 +2966,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
-      <c r="I7" s="1" t="e">
-        <f ca="1">(H29-G29)*0</f>
-        <v>#NAME?</v>
+      <c r="I7" s="1">
+        <f>(H29-G29)*0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2815,31 +3016,31 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C11" s="1">
+        <f>_xll.qlQuoteValue(B11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
+        <v>6.6E-4</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E11" s="1">
+        <f>_xll.qlQuoteValue(D11&amp;$A11&amp;$C$3,InterestRatesTrigger)</f>
+        <v>-1.31E-3</v>
       </c>
       <c r="F11" s="21">
         <v>1</v>
       </c>
-      <c r="G11" s="4" t="e">
-        <f ca="1">C11-E11</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H11" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F11,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I11" s="4" t="e">
-        <f t="shared" ref="I11:I32" ca="1" si="0">H11-$I$7</f>
-        <v>#NAME?</v>
+      <c r="G11" s="4">
+        <f>C11-E11</f>
+        <v>1.97E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F11,TRUE)</f>
+        <v>1.9011746193002379E-3</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:I32" si="0">H11-$I$7</f>
+        <v>1.9011746193002379E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2849,31 +3050,31 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C12" s="1">
+        <f>_xll.qlQuoteValue(B12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
+        <v>6.0999999999999997E-4</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E12" s="1">
+        <f>_xll.qlQuoteValue(D12&amp;$A12&amp;$C$3,InterestRatesTrigger)</f>
+        <v>-1.2900000000000001E-3</v>
       </c>
       <c r="F12" s="21">
         <v>1.25</v>
       </c>
-      <c r="G12" s="4" t="e">
-        <f t="shared" ref="G12:G14" ca="1" si="1">C12-E12</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F12,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="4" t="e">
-        <f t="shared" ref="I12:I14" ca="1" si="2">H12-$I$7</f>
-        <v>#NAME?</v>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12:G14" si="1">C12-E12</f>
+        <v>1.9000000000000002E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F12,TRUE)</f>
+        <v>1.9609794024797009E-3</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" ref="I12:I14" si="2">H12-$I$7</f>
+        <v>1.9609794024797009E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2883,31 +3084,31 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C13" s="1">
+        <f>_xll.qlQuoteValue(B13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
+        <v>7.8000000000000009E-4</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E13" s="1">
+        <f>_xll.qlQuoteValue(D13&amp;$A13&amp;$C$3,InterestRatesTrigger)</f>
+        <v>-1.2700000000000001E-3</v>
       </c>
       <c r="F13" s="21">
         <v>1.5</v>
       </c>
-      <c r="G13" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H13" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F13,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I13" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0500000000000002E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F13,TRUE)</f>
+        <v>2.0170497204826873E-3</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0170497204826873E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2917,31 +3118,31 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C14" s="1">
+        <f>_xll.qlQuoteValue(B14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
+        <v>7.9000000000000012E-4</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E14" s="1">
+        <f>_xll.qlQuoteValue(D14&amp;$A14&amp;$C$3,InterestRatesTrigger)</f>
+        <v>-1.2199999999999999E-3</v>
       </c>
       <c r="F14" s="21">
         <v>1.75</v>
       </c>
-      <c r="G14" s="4" t="e">
-        <f t="shared" ca="1" si="1"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H14" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F14,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I14" s="4" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0100000000000001E-3</v>
+      </c>
+      <c r="H14" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F14,TRUE)</f>
+        <v>2.0694763203576256E-3</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0694763203576256E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2951,31 +3152,31 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C15" s="1">
+        <f>_xll.qlQuoteValue(B15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
+        <v>9.7000000000000005E-4</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E15" s="1">
+        <f>_xll.qlQuoteValue(D15&amp;$A15&amp;$C$3,InterestRatesTrigger)</f>
+        <v>-1.15E-3</v>
       </c>
       <c r="F15" s="21">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="e">
-        <f t="shared" ref="G15:G24" ca="1" si="3">C15-E15</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H15" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F15,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I15" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:G24" si="3">C15-E15</f>
+        <v>2.1199999999999999E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F15,TRUE)</f>
+        <v>2.1183679940151991E-3</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1183679940151991E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2985,31 +3186,31 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C16" s="1">
+        <f>_xll.qlQuoteValue(B16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.6099999999999997E-3</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E16" s="1">
+        <f>_xll.qlQuoteValue(D16&amp;$A16&amp;$C$3,InterestRatesTrigger)</f>
+        <v>-6.8000000000000005E-4</v>
       </c>
       <c r="F16" s="21">
         <v>3</v>
       </c>
-      <c r="G16" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H16" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F16,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I16" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G16" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2899999999999995E-3</v>
+      </c>
+      <c r="H16" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F16,TRUE)</f>
+        <v>2.2810926518035601E-3</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>2.2810926518035601E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3019,31 +3220,31 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C17" s="1">
+        <f>_xll.qlQuoteValue(B17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.5200000000000001E-3</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E17" s="1">
+        <f>_xll.qlQuoteValue(D17&amp;$A17&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.2E-4</v>
       </c>
       <c r="F17" s="21">
         <v>4</v>
       </c>
-      <c r="G17" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H17" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F17,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I17" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G17" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4000000000000002E-3</v>
+      </c>
+      <c r="H17" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F17,TRUE)</f>
+        <v>2.3976284489873319E-3</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>2.3976284489873319E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3053,31 +3254,31 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C18" s="1">
+        <f>_xll.qlQuoteValue(B18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
+        <v>3.6099999999999999E-3</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E18" s="1">
+        <f>_xll.qlQuoteValue(D18&amp;$A18&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="F18" s="21">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H18" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F18,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I18" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G18" s="4">
+        <f t="shared" si="3"/>
+        <v>2.48E-3</v>
+      </c>
+      <c r="H18" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F18,TRUE)</f>
+        <v>2.4761752631573307E-3</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4761752631573307E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3087,31 +3288,31 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C19" s="1">
+        <f>_xll.qlQuoteValue(B19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
+        <v>4.79E-3</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E19" s="1">
+        <f>_xll.qlQuoteValue(D19&amp;$A19&amp;$C$3,InterestRatesTrigger)</f>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="F19" s="21">
         <v>6</v>
       </c>
-      <c r="G19" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H19" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F19,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I19" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G19" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="H19" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F19,TRUE)</f>
+        <v>2.5240524665860863E-3</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5240524665860863E-3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3121,31 +3322,31 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C20" s="1">
+        <f>_xll.qlQuoteValue(B20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
+        <v>5.9800000000000009E-3</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E20" s="1">
+        <f>_xll.qlQuoteValue(D20&amp;$A20&amp;$C$3,InterestRatesTrigger)</f>
+        <v>3.4399999999999999E-3</v>
       </c>
       <c r="F20" s="21">
         <v>7</v>
       </c>
-      <c r="G20" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H20" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F20,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I20" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G20" s="4">
+        <f t="shared" si="3"/>
+        <v>2.540000000000001E-3</v>
+      </c>
+      <c r="H20" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F20,TRUE)</f>
+        <v>2.5475268056079302E-3</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5475268056079302E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3155,31 +3356,31 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C21" s="1">
+        <f>_xll.qlQuoteValue(B21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
+        <v>7.0899999999999999E-3</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E21" s="1">
+        <f>_xll.qlQuoteValue(D21&amp;$A21&amp;$C$3,InterestRatesTrigger)</f>
+        <v>4.5399999999999998E-3</v>
       </c>
       <c r="F21" s="21">
         <v>8</v>
       </c>
-      <c r="G21" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H21" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F21,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I21" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G21" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5500000000000002E-3</v>
+      </c>
+      <c r="H21" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F21,TRUE)</f>
+        <v>2.5518496828349922E-3</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5518496828349922E-3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3189,31 +3390,31 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C22" s="1">
+        <f>_xll.qlQuoteValue(B22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
+        <v>8.1000000000000013E-3</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E22" s="1">
+        <f>_xll.qlQuoteValue(D22&amp;$A22&amp;$C$3,InterestRatesTrigger)</f>
+        <v>5.5500000000000002E-3</v>
       </c>
       <c r="F22" s="21">
         <v>9</v>
       </c>
-      <c r="G22" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H22" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F22,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I22" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G22" s="4">
+        <f t="shared" si="3"/>
+        <v>2.5500000000000011E-3</v>
+      </c>
+      <c r="H22" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F22,TRUE)</f>
+        <v>2.5413627337061745E-3</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5413627337061745E-3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3223,31 +3424,31 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C23" s="1">
+        <f>_xll.qlQuoteValue(B23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
+        <v>8.9600000000000009E-3</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E23" s="1">
+        <f>_xll.qlQuoteValue(D23&amp;$A23&amp;$C$3,InterestRatesTrigger)</f>
+        <v>6.43E-3</v>
       </c>
       <c r="F23" s="21">
         <v>10</v>
       </c>
-      <c r="G23" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H23" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F23,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I23" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G23" s="4">
+        <f t="shared" si="3"/>
+        <v>2.530000000000001E-3</v>
+      </c>
+      <c r="H23" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F23,TRUE)</f>
+        <v>2.5196196780599488E-3</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>2.5196196780599488E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3257,31 +3458,31 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C24" s="1">
+        <f>_xll.qlQuoteValue(B24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
+        <v>9.7199999999999995E-3</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E24" s="1">
+        <f>_xll.qlQuoteValue(D24&amp;$A24&amp;$C$3,InterestRatesTrigger)</f>
+        <v>7.2199999999999999E-3</v>
       </c>
       <c r="F24" s="21">
         <v>11</v>
       </c>
-      <c r="G24" s="4" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H24" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F24,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I24" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G24" s="4">
+        <f t="shared" si="3"/>
+        <v>2.4999999999999996E-3</v>
+      </c>
+      <c r="H24" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F24,TRUE)</f>
+        <v>2.4895045308236108E-3</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4895045308236108E-3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3291,31 +3492,31 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C25" s="1">
+        <f>_xll.qlQuoteValue(B25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.038E-2</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E25" s="1">
+        <f>_xll.qlQuoteValue(D25&amp;$A25&amp;$C$3,InterestRatesTrigger)</f>
+        <v>7.92E-3</v>
       </c>
       <c r="F25" s="21">
         <v>12</v>
       </c>
-      <c r="G25" s="4" t="e">
-        <f t="shared" ref="G25:G32" ca="1" si="4">C25-E25</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H25" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F25,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I25" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G25" s="4">
+        <f t="shared" ref="G25:G32" si="4">C25-E25</f>
+        <v>2.4600000000000004E-3</v>
+      </c>
+      <c r="H25" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F25,TRUE)</f>
+        <v>2.4533388463311235E-3</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4533388463311235E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -3325,31 +3526,31 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C26" s="1">
+        <f>_xll.qlQuoteValue(B26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.179E-2</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E26" s="1">
+        <f>_xll.qlQuoteValue(D26&amp;$A26&amp;$C$3,InterestRatesTrigger)</f>
+        <v>9.4699999999999993E-3</v>
       </c>
       <c r="F26" s="21">
         <v>15</v>
       </c>
-      <c r="G26" s="4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H26" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F26,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I26" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G26" s="4">
+        <f t="shared" si="4"/>
+        <v>2.3200000000000009E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F26,TRUE)</f>
+        <v>2.325204610730598E-3</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="0"/>
+        <v>2.325204610730598E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3359,31 +3560,31 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C27" s="1">
+        <f>_xll.qlQuoteValue(B27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.29E-2</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E27" s="1">
+        <f>_xll.qlQuoteValue(D27&amp;$A27&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.0819999999999998E-2</v>
       </c>
       <c r="F27" s="21">
         <v>20</v>
       </c>
-      <c r="G27" s="4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H27" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F27,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I27" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G27" s="4">
+        <f t="shared" si="4"/>
+        <v>2.080000000000002E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F27,TRUE)</f>
+        <v>2.1026138415487011E-3</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1026138415487011E-3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3393,31 +3594,31 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C28" s="1">
+        <f>_xll.qlQuoteValue(B28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.3229999999999999E-2</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E28" s="1">
+        <f>_xll.qlQuoteValue(D28&amp;$A28&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.133E-2</v>
       </c>
       <c r="F28" s="21">
         <v>25</v>
       </c>
-      <c r="G28" s="4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H28" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F28,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I28" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G28" s="4">
+        <f t="shared" si="4"/>
+        <v>1.8999999999999989E-3</v>
+      </c>
+      <c r="H28" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F28,TRUE)</f>
+        <v>1.9093274957283678E-3</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9093274957283678E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3427,31 +3628,31 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C29" s="1">
+        <f>_xll.qlQuoteValue(B29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.3420000000000001E-2</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
       </c>
-      <c r="E29" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E29" s="1">
+        <f>_xll.qlQuoteValue(D29&amp;$A29&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.167E-2</v>
       </c>
       <c r="F29" s="21">
         <v>30</v>
       </c>
-      <c r="G29" s="4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H29" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F29,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I29" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G29" s="4">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000016E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F29,TRUE)</f>
+        <v>1.7522843703577185E-3</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="0"/>
+        <v>1.7522843703577185E-3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3462,31 +3663,31 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B30&amp;$A30&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C30" s="1">
+        <f>_xll.qlQuoteValue(B30&amp;$A30&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.359E-2</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D30&amp;$A30&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E30" s="1">
+        <f>_xll.qlQuoteValue(D30&amp;$A30&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.206E-2</v>
       </c>
       <c r="F30" s="21">
         <v>40</v>
       </c>
-      <c r="G30" s="4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H30" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F30,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I30" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G30" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5300000000000001E-3</v>
+      </c>
+      <c r="H30" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F30,TRUE)</f>
+        <v>1.5217436738351785E-3</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5217436738351785E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3497,31 +3698,31 @@
       <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B31&amp;$A31&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C31" s="1">
+        <f>_xll.qlQuoteValue(B31&amp;$A31&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.3130000000000001E-2</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D31&amp;$A31&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E31" s="1">
+        <f>_xll.qlQuoteValue(D31&amp;$A31&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.1760000000000001E-2</v>
       </c>
       <c r="F31" s="21">
         <v>50</v>
       </c>
-      <c r="G31" s="4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H31" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F31,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I31" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G31" s="4">
+        <f t="shared" si="4"/>
+        <v>1.3699999999999997E-3</v>
+      </c>
+      <c r="H31" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F31,TRUE)</f>
+        <v>1.3619432992116804E-3</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>1.3619432992116804E-3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3532,31 +3733,31 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(B32&amp;$A32&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="C32" s="1">
+        <f>_xll.qlQuoteValue(B32&amp;$A32&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.298E-2</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D32&amp;$A32&amp;$C$3,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+      <c r="E32" s="1">
+        <f>_xll.qlQuoteValue(D32&amp;$A32&amp;$C$3,InterestRatesTrigger)</f>
+        <v>1.1730000000000001E-2</v>
       </c>
       <c r="F32" s="21">
         <v>60</v>
       </c>
-      <c r="G32" s="4" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="H32" s="4" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(BasisExtrapolator,F32,TRUE)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I32" s="4" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="G32" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2499999999999994E-3</v>
+      </c>
+      <c r="H32" s="4">
+        <f>_xll.qlInterpolationInterpolate(BasisExtrapolator,F32,TRUE)</f>
+        <v>1.2436552752126443E-3</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2436552752126443E-3</v>
       </c>
     </row>
     <row r="35" spans="5:7" x14ac:dyDescent="0.2">
@@ -3571,9 +3772,9 @@
       <c r="E36" t="s">
         <v>125</v>
       </c>
-      <c r="F36" s="2" t="e">
-        <f ca="1">_xll.qlAbcdInterpolationA(BasisExtrapolator)</f>
-        <v>#NAME?</v>
+      <c r="F36" s="2">
+        <f>_xll.qlAbcdInterpolationA(BasisExtrapolator)</f>
+        <v>1.5604995750993741E-3</v>
       </c>
       <c r="G36" s="27">
         <v>-1.1556684301587655E-3</v>
@@ -3583,9 +3784,9 @@
       <c r="E37" t="s">
         <v>126</v>
       </c>
-      <c r="F37" s="2" t="e">
-        <f ca="1">_xll.qlAbcdInterpolationB(BasisExtrapolator)</f>
-        <v>#NAME?</v>
+      <c r="F37" s="2">
+        <f>_xll.qlAbcdInterpolationB(BasisExtrapolator)</f>
+        <v>8.5281229223835406E-4</v>
       </c>
       <c r="G37" s="27">
         <v>2.5355454308524164E-3</v>
@@ -3595,9 +3796,9 @@
       <c r="E38" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="2" t="e">
-        <f ca="1">_xll.qlAbcdInterpolationC(BasisExtrapolator)</f>
-        <v>#NAME?</v>
+      <c r="F38" s="2">
+        <f>_xll.qlAbcdInterpolationC(BasisExtrapolator)</f>
+        <v>0.15334326604641776</v>
       </c>
       <c r="G38" s="27">
         <v>0.35804596119753157</v>
@@ -3607,9 +3808,9 @@
       <c r="E39" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="2" t="e">
-        <f ca="1">_xll.qlAbcdInterpolationD(BasisExtrapolator)</f>
-        <v>#NAME?</v>
+      <c r="F39" s="2">
+        <f>_xll.qlAbcdInterpolationD(BasisExtrapolator)</f>
+        <v>6.3511398775994846E-5</v>
       </c>
       <c r="G39" s="27">
         <v>1.155670694872052E-3</v>
@@ -3646,16 +3847,16 @@
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
@@ -3720,9 +3921,9 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C5" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D5,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C5" s="1">
+        <f>_xll.qlQuoteValue(D5,Model!$E$11:$E$32)</f>
+        <v>-1E-3</v>
       </c>
       <c r="D5" s="24" t="str">
         <f>Currency&amp;E5&amp;"D"&amp;D$3</f>
@@ -3732,8 +3933,8 @@
         <v>43</v>
       </c>
       <c r="F5" s="1" t="b">
-        <f t="shared" ref="F5:F44" ca="1" si="0">NOT(ISERROR(C5))</f>
-        <v>0</v>
+        <f t="shared" ref="F5:F44" si="0">NOT(ISERROR(C5))</f>
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>116</v>
@@ -3742,13 +3943,13 @@
         <f t="shared" ref="H5:H44" si="1">Currency&amp;H$4&amp;$E5</f>
         <v>EUROISDDSON</v>
       </c>
-      <c r="I5" s="5" t="e">
-        <f ca="1">IF(ROUND(IF($F5,$C5,$B5),5)=0,ROUND(IF($F5,$C5,$B5),5)*100+0.000001,ROUND(IF($F5,$C5,$B5),5)*100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="5" t="e">
-        <f ca="1">I5</f>
-        <v>#N/A</v>
+      <c r="I5" s="5">
+        <f>IF(ROUND(IF($F5,$C5,$B5),5)=0,ROUND(IF($F5,$C5,$B5),5)*100+0.000001,ROUND(IF($F5,$C5,$B5),5)*100)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="J5" s="5">
+        <f>I5</f>
+        <v>-0.1</v>
       </c>
       <c r="K5" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H5,$I$4:$J$4,$I5:$J5,"SCOPE:SERVER"),"--")</f>
@@ -3767,7 +3968,7 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O5" s="5" t="e">
-        <f ca="1">M5-I5</f>
+        <f>M5-I5</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3776,9 +3977,9 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C6" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D6,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C6" s="1">
+        <f>_xll.qlQuoteValue(D6,Model!$E$11:$E$32)</f>
+        <v>-6.9999999999999988E-4</v>
       </c>
       <c r="D6" s="24" t="str">
         <f>Currency&amp;E6&amp;"D"&amp;D$3</f>
@@ -3788,8 +3989,8 @@
         <v>44</v>
       </c>
       <c r="F6" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>116</v>
@@ -3798,13 +3999,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDSTN</v>
       </c>
-      <c r="I6" s="5" t="e">
-        <f t="shared" ref="I6:I66" ca="1" si="2">IF(ROUND(IF($F6,$C6,$B6),5)=0,ROUND(IF($F6,$C6,$B6),5)*100+0.000001,ROUND(IF($F6,$C6,$B6),5)*100)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="5" t="e">
-        <f t="shared" ref="J6:J66" ca="1" si="3">I6</f>
-        <v>#N/A</v>
+      <c r="I6" s="5">
+        <f t="shared" ref="I6:I66" si="2">IF(ROUND(IF($F6,$C6,$B6),5)=0,ROUND(IF($F6,$C6,$B6),5)*100+0.000001,ROUND(IF($F6,$C6,$B6),5)*100)</f>
+        <v>-6.9999999999999993E-2</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" ref="J6:J66" si="3">I6</f>
+        <v>-6.9999999999999993E-2</v>
       </c>
       <c r="K6" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H6,$I$4:$J$4,$I6:$J6,"SCOPE:SERVER"),"--")</f>
@@ -3823,7 +4024,7 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O6" s="5" t="e">
-        <f t="shared" ref="O6:O66" ca="1" si="4">M6-I6</f>
+        <f t="shared" ref="O6:O66" si="4">M6-I6</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -3832,9 +4033,9 @@
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C7" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D7,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C7" s="1">
+        <f>_xll.qlQuoteValue(D7,Model!$E$11:$E$32)</f>
+        <v>-1E-3</v>
       </c>
       <c r="D7" s="24" t="str">
         <f>Currency&amp;E7&amp;"D"&amp;D$3</f>
@@ -3844,8 +4045,8 @@
         <v>45</v>
       </c>
       <c r="F7" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>116</v>
@@ -3854,13 +4055,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDSSN</v>
       </c>
-      <c r="I7" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
+      <c r="I7" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.1</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.1</v>
       </c>
       <c r="K7" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H7,$I$4:$J$4,$I7:$J7,"SCOPE:SERVER"),"--")</f>
@@ -3879,15 +4080,15 @@
         <v>#N/A RIC Not Found</v>
       </c>
       <c r="O7" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D8,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C8" s="1">
+        <f>_xll.qlQuoteValue(D8,Model!$E$11:$E$32)</f>
+        <v>-1.2099999999999999E-3</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ref="D8:D47" si="5">Currency&amp;D$4&amp;$E8&amp;D$3</f>
@@ -3897,8 +4098,8 @@
         <v>46</v>
       </c>
       <c r="F8" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>80</v>
@@ -3908,12 +4109,12 @@
         <v>EUROISDDS1W</v>
       </c>
       <c r="I8" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.121</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.121</v>
       </c>
       <c r="K8" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H8,$I$4:$J$4,$I8:$J8,"SCOPE:SERVER"),"--")</f>
@@ -3925,22 +4126,22 @@
       </c>
       <c r="M8" s="5">
         <f>_xll.RtGet(K$4,$H8,$I$4)</f>
-        <v>-0.01</v>
+        <v>-0.121</v>
       </c>
       <c r="N8" s="5">
         <f>_xll.RtGet(L$4,$H8,$I$4)</f>
-        <v>-0.01</v>
+        <v>-0.121</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.0000999999999999E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D9,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C9" s="1">
+        <f>_xll.qlQuoteValue(D9,Model!$E$11:$E$32)</f>
+        <v>-1.1899999999999999E-3</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="5"/>
@@ -3950,8 +4151,8 @@
         <v>47</v>
       </c>
       <c r="F9" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>81</v>
@@ -3961,12 +4162,12 @@
         <v>EUROISDDS2W</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.11900000000000001</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.11900000000000001</v>
       </c>
       <c r="K9" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H9,$I$4:$J$4,$I9:$J9,"SCOPE:SERVER"),"--")</f>
@@ -3978,22 +4179,22 @@
       </c>
       <c r="M9" s="5">
         <f>_xll.RtGet(K$4,$H9,$I$4)</f>
-        <v>6.9999999999999993E-3</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="N9" s="5">
         <f>_xll.RtGet(L$4,$H9,$I$4)</f>
-        <v>6.9999999999999993E-3</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>6.9989999999999991E-3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D10,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C10" s="1">
+        <f>_xll.qlQuoteValue(D10,Model!$E$11:$E$32)</f>
+        <v>-1.1899999999999999E-3</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="5"/>
@@ -4003,8 +4204,8 @@
         <v>48</v>
       </c>
       <c r="F10" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>82</v>
@@ -4014,12 +4215,12 @@
         <v>EUROISDDS3W</v>
       </c>
       <c r="I10" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.11900000000000001</v>
       </c>
       <c r="J10" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.11900000000000001</v>
       </c>
       <c r="K10" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H10,$I$4:$J$4,$I10:$J10,"SCOPE:SERVER"),"--")</f>
@@ -4031,22 +4232,22 @@
       </c>
       <c r="M10" s="5">
         <f>_xll.RtGet(K$4,$H10,$I$4)</f>
-        <v>1E-3</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="N10" s="5">
         <f>_xll.RtGet(L$4,$H10,$I$4)</f>
-        <v>1E-3</v>
+        <v>-0.11899999999999999</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>9.990000000000001E-4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D11,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C11" s="1">
+        <f>_xll.qlQuoteValue(D11,Model!$E$11:$E$32)</f>
+        <v>-1.17E-3</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="5"/>
@@ -4056,8 +4257,8 @@
         <v>49</v>
       </c>
       <c r="F11" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>83</v>
@@ -4067,12 +4268,12 @@
         <v>EUROISDDS1M</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="J11" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="K11" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H11,$I$4:$J$4,$I11:$J11,"SCOPE:SERVER"),"--")</f>
@@ -4084,22 +4285,22 @@
       </c>
       <c r="M11" s="5">
         <f>_xll.RtGet(K$4,$H11,$I$4)</f>
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.11699999999999999</v>
       </c>
       <c r="N11" s="5">
         <f>_xll.RtGet(L$4,$H11,$I$4)</f>
-        <v>-4.0000000000000001E-3</v>
+        <v>-0.11699999999999999</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-4.0010000000000002E-3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D12,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C12" s="1">
+        <f>_xll.qlQuoteValue(D12,Model!$E$11:$E$32)</f>
+        <v>-1.23E-3</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="5"/>
@@ -4109,8 +4310,8 @@
         <v>50</v>
       </c>
       <c r="F12" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>84</v>
@@ -4120,12 +4321,12 @@
         <v>EUROISDDS2M</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.123</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.123</v>
       </c>
       <c r="K12" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H12,$I$4:$J$4,$I12:$J12,"SCOPE:SERVER"),"--")</f>
@@ -4137,22 +4338,22 @@
       </c>
       <c r="M12" s="5">
         <f>_xll.RtGet(K$4,$H12,$I$4)</f>
-        <v>-6.0000000000000001E-3</v>
+        <v>-0.123</v>
       </c>
       <c r="N12" s="5">
         <f>_xll.RtGet(L$4,$H12,$I$4)</f>
-        <v>-6.0000000000000001E-3</v>
+        <v>-0.123</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-6.0010000000000003E-3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D13,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C13" s="1">
+        <f>_xll.qlQuoteValue(D13,Model!$E$11:$E$32)</f>
+        <v>-1.25E-3</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="5"/>
@@ -4162,8 +4363,8 @@
         <v>51</v>
       </c>
       <c r="F13" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>85</v>
@@ -4173,12 +4374,12 @@
         <v>EUROISDDS3M</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.125</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.125</v>
       </c>
       <c r="K13" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H13,$I$4:$J$4,$I13:$J13,"SCOPE:SERVER"),"--")</f>
@@ -4190,22 +4391,22 @@
       </c>
       <c r="M13" s="5">
         <f>_xll.RtGet(K$4,$H13,$I$4)</f>
-        <v>-1.1000000000000001E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="N13" s="5">
         <f>_xll.RtGet(L$4,$H13,$I$4)</f>
-        <v>-1.1000000000000001E-2</v>
+        <v>-0.125</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.1001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D14,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C14" s="1">
+        <f>_xll.qlQuoteValue(D14,Model!$E$11:$E$32)</f>
+        <v>-1.2700000000000001E-3</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="5"/>
@@ -4215,8 +4416,8 @@
         <v>52</v>
       </c>
       <c r="F14" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>86</v>
@@ -4226,12 +4427,12 @@
         <v>EUROISDDS4M</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.127</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.127</v>
       </c>
       <c r="K14" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H14,$I$4:$J$4,$I14:$J14,"SCOPE:SERVER"),"--")</f>
@@ -4243,22 +4444,22 @@
       </c>
       <c r="M14" s="5">
         <f>_xll.RtGet(K$4,$H14,$I$4)</f>
-        <v>-1.7000000000000001E-2</v>
+        <v>-0.127</v>
       </c>
       <c r="N14" s="5">
         <f>_xll.RtGet(L$4,$H14,$I$4)</f>
-        <v>-1.7000000000000001E-2</v>
+        <v>-0.127</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.7001000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="C15" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D15,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C15" s="1">
+        <f>_xll.qlQuoteValue(D15,Model!$E$11:$E$32)</f>
+        <v>-1.2800000000000001E-3</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="5"/>
@@ -4268,8 +4469,8 @@
         <v>53</v>
       </c>
       <c r="F15" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>87</v>
@@ -4279,12 +4480,12 @@
         <v>EUROISDDS5M</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.128</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.128</v>
       </c>
       <c r="K15" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H15,$I$4:$J$4,$I15:$J15,"SCOPE:SERVER"),"--")</f>
@@ -4296,22 +4497,22 @@
       </c>
       <c r="M15" s="5">
         <f>_xll.RtGet(K$4,$H15,$I$4)</f>
-        <v>-1.4E-2</v>
+        <v>-0.128</v>
       </c>
       <c r="N15" s="5">
         <f>_xll.RtGet(L$4,$H15,$I$4)</f>
-        <v>-1.4E-2</v>
+        <v>-0.128</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.4001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D16,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C16" s="1">
+        <f>_xll.qlQuoteValue(D16,Model!$E$11:$E$32)</f>
+        <v>-1.31E-3</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="5"/>
@@ -4321,8 +4522,8 @@
         <v>54</v>
       </c>
       <c r="F16" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>88</v>
@@ -4332,12 +4533,12 @@
         <v>EUROISDDS6M</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="K16" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H16,$I$4:$J$4,$I16:$J16,"SCOPE:SERVER"),"--")</f>
@@ -4349,22 +4550,22 @@
       </c>
       <c r="M16" s="5">
         <f>_xll.RtGet(K$4,$H16,$I$4)</f>
-        <v>-1.6E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="N16" s="5">
         <f>_xll.RtGet(L$4,$H16,$I$4)</f>
-        <v>-1.6E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-1.6001000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D17,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C17" s="1">
+        <f>_xll.qlQuoteValue(D17,Model!$E$11:$E$32)</f>
+        <v>-1.2800000000000001E-3</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="5"/>
@@ -4374,8 +4575,8 @@
         <v>55</v>
       </c>
       <c r="F17" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>89</v>
@@ -4385,12 +4586,12 @@
         <v>EUROISDDS7M</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.128</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.128</v>
       </c>
       <c r="K17" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H17,$I$4:$J$4,$I17:$J17,"SCOPE:SERVER"),"--")</f>
@@ -4402,22 +4603,22 @@
       </c>
       <c r="M17" s="5">
         <f>_xll.RtGet(K$4,$H17,$I$4)</f>
-        <v>-0.02</v>
+        <v>-0.128</v>
       </c>
       <c r="N17" s="5">
         <f>_xll.RtGet(L$4,$H17,$I$4)</f>
-        <v>-0.02</v>
+        <v>-0.128</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.0001000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D18,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C18" s="1">
+        <f>_xll.qlQuoteValue(D18,Model!$E$11:$E$32)</f>
+        <v>-1.31E-3</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="5"/>
@@ -4427,8 +4628,8 @@
         <v>56</v>
       </c>
       <c r="F18" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>90</v>
@@ -4438,12 +4639,12 @@
         <v>EUROISDDS8M</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="K18" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H18,$I$4:$J$4,$I18:$J18,"SCOPE:SERVER"),"--")</f>
@@ -4455,22 +4656,22 @@
       </c>
       <c r="M18" s="5">
         <f>_xll.RtGet(K$4,$H18,$I$4)</f>
-        <v>-2.4E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="N18" s="5">
         <f>_xll.RtGet(L$4,$H18,$I$4)</f>
-        <v>-2.4E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.4001000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D19,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C19" s="1">
+        <f>_xll.qlQuoteValue(D19,Model!$E$11:$E$32)</f>
+        <v>-1.32E-3</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="5"/>
@@ -4480,8 +4681,8 @@
         <v>57</v>
       </c>
       <c r="F19" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>91</v>
@@ -4491,12 +4692,12 @@
         <v>EUROISDDS9M</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="K19" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H19,$I$4:$J$4,$I19:$J19,"SCOPE:SERVER"),"--")</f>
@@ -4508,22 +4709,22 @@
       </c>
       <c r="M19" s="5">
         <f>_xll.RtGet(K$4,$H19,$I$4)</f>
-        <v>-2.5999999999999999E-2</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="N19" s="5">
         <f>_xll.RtGet(L$4,$H19,$I$4)</f>
-        <v>-2.5999999999999999E-2</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.6001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D20,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C20" s="1">
+        <f>_xll.qlQuoteValue(D20,Model!$E$11:$E$32)</f>
+        <v>-1.32E-3</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="5"/>
@@ -4533,8 +4734,8 @@
         <v>58</v>
       </c>
       <c r="F20" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>92</v>
@@ -4544,12 +4745,12 @@
         <v>EUROISDDS10M</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="K20" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H20,$I$4:$J$4,$I20:$J20,"SCOPE:SERVER"),"--")</f>
@@ -4561,22 +4762,22 @@
       </c>
       <c r="M20" s="5">
         <f>_xll.RtGet(K$4,$H20,$I$4)</f>
-        <v>-2.8000000000000001E-2</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="N20" s="5">
         <f>_xll.RtGet(L$4,$H20,$I$4)</f>
-        <v>-2.8000000000000001E-2</v>
+        <v>-0.13200000000000001</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-2.8001000000000002E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D21,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="C21" s="1">
+        <f>_xll.qlQuoteValue(D21,Model!$E$11:$E$32)</f>
+        <v>-1.31E-3</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="5"/>
@@ -4586,8 +4787,8 @@
         <v>59</v>
       </c>
       <c r="F21" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>93</v>
@@ -4597,12 +4798,12 @@
         <v>EUROISDDS11M</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="2"/>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" ca="1" si="3"/>
-        <v>9.9999999999999995E-7</v>
+        <f t="shared" si="3"/>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="K21" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H21,$I$4:$J$4,$I21:$J21,"SCOPE:SERVER"),"--")</f>
@@ -4614,28 +4815,28 @@
       </c>
       <c r="M21" s="5">
         <f>_xll.RtGet(K$4,$H21,$I$4)</f>
-        <v>-3.1E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="N21" s="5">
         <f>_xll.RtGet(L$4,$H21,$I$4)</f>
-        <v>-3.1E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>-3.1001000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="22">
         <v>1</v>
       </c>
-      <c r="B22" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A22)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C22" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D22,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B22" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A22)</f>
+        <v>-1.31E-3</v>
+      </c>
+      <c r="C22" s="1">
+        <f>_xll.qlQuoteValue(D22,Model!$E$11:$E$32)</f>
+        <v>-1.31E-3</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="5"/>
@@ -4645,8 +4846,8 @@
         <v>19</v>
       </c>
       <c r="F22" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>94</v>
@@ -4655,13 +4856,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS1Y</v>
       </c>
-      <c r="I22" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J22" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I22" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="K22" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H22,$I$4:$J$4,$I22:$J22,"SCOPE:SERVER"),"--")</f>
@@ -4673,48 +4874,48 @@
       </c>
       <c r="M22" s="5">
         <f>_xll.RtGet(K$4,$H22,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="N22" s="5">
         <f>_xll.RtGet(L$4,$H22,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="O22" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P22" t="str">
-        <f>_xll.qlMakeOIS(,E22,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00837#0001</v>
-      </c>
-      <c r="Q22" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P22,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R22" s="31" t="e">
-        <f ca="1">Q22-C22</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S22" s="31" t="e">
-        <f ca="1">Q22-B22</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T22" s="31" t="e">
-        <f ca="1">Q22-I22/100</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E22,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a70#0000</v>
+      </c>
+      <c r="Q22" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P22,InterestRatesTrigger)</f>
+        <v>-1.3101084748206873E-3</v>
+      </c>
+      <c r="R22" s="31">
+        <f>Q22-C22</f>
+        <v>-1.0847482068729146E-7</v>
+      </c>
+      <c r="S22" s="31">
+        <f>Q22-B22</f>
+        <v>-1.0847482068729146E-7</v>
+      </c>
+      <c r="T22" s="31">
+        <f>Q22-I22/100</f>
+        <v>-1.0847482068729146E-7</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>1.0833333333333333</v>
       </c>
-      <c r="B23" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A23)</f>
-        <v>#NAME?</v>
+      <c r="B23" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A23)</f>
+        <v>-1.3027887262221005E-3</v>
       </c>
       <c r="C23" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D23,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D23,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="5"/>
@@ -4724,7 +4925,7 @@
         <v>117</v>
       </c>
       <c r="F23" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -4734,13 +4935,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS13M</v>
       </c>
-      <c r="I23" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J23" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I23" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.13</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.13</v>
       </c>
       <c r="K23" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H23,$I$4:$J$4,$I23:$J23,"SCOPE:SERVER"),"--")</f>
@@ -4752,48 +4953,48 @@
       </c>
       <c r="M23" s="5">
         <f>_xll.RtGet(K$4,$H23,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="N23" s="5">
         <f>_xll.RtGet(L$4,$H23,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="O23" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.13</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P23" t="str">
-        <f>_xll.qlMakeOIS(,E23,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00826#0001</v>
-      </c>
-      <c r="Q23" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P23,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E23,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a73#0000</v>
+      </c>
+      <c r="Q23" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P23,InterestRatesTrigger)</f>
+        <v>-1.3054420949819433E-3</v>
       </c>
       <c r="R23" s="31" t="e">
-        <f t="shared" ref="R23:R66" ca="1" si="6">Q23-C23</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="S23" s="31" t="e">
-        <f t="shared" ref="S23:S66" ca="1" si="7">Q23-B23</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="T23" s="31" t="e">
-        <f t="shared" ref="T23:T66" ca="1" si="8">Q23-I23/100</f>
-        <v>#NAME?</v>
+        <f t="shared" ref="R23:R66" si="6">Q23-C23</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S23" s="31">
+        <f t="shared" ref="S23:S66" si="7">Q23-B23</f>
+        <v>-2.6533687598427873E-6</v>
+      </c>
+      <c r="T23" s="31">
+        <f t="shared" ref="T23:T66" si="8">Q23-I23/100</f>
+        <v>-5.442094981943351E-6</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>1.1666666666666667</v>
       </c>
-      <c r="B24" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A24)</f>
-        <v>#NAME?</v>
+      <c r="B24" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A24)</f>
+        <v>-1.2959859077776256E-3</v>
       </c>
       <c r="C24" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D24,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D24,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="5"/>
@@ -4803,7 +5004,7 @@
         <v>118</v>
       </c>
       <c r="F24" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -4813,13 +5014,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS14M</v>
       </c>
-      <c r="I24" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J24" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.13</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.13</v>
       </c>
       <c r="K24" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H24,$I$4:$J$4,$I24:$J24,"SCOPE:SERVER"),"--")</f>
@@ -4831,48 +5032,48 @@
       </c>
       <c r="M24" s="5">
         <f>_xll.RtGet(K$4,$H24,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.13</v>
       </c>
       <c r="N24" s="5">
         <f>_xll.RtGet(L$4,$H24,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="O24" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.13</v>
+      </c>
+      <c r="O24" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P24" t="str">
-        <f>_xll.qlMakeOIS(,E24,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082f#0001</v>
-      </c>
-      <c r="Q24" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P24,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E24,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a83#0000</v>
+      </c>
+      <c r="Q24" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P24,InterestRatesTrigger)</f>
+        <v>-1.2982588591818171E-3</v>
       </c>
       <c r="R24" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S24" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T24" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S24" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.2729514041915349E-6</v>
+      </c>
+      <c r="T24" s="31">
+        <f t="shared" si="8"/>
+        <v>1.7411408181828344E-6</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="32">
         <v>1.25</v>
       </c>
-      <c r="B25" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A25)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C25" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D25,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B25" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A25)</f>
+        <v>-1.2900000000000001E-3</v>
+      </c>
+      <c r="C25" s="33">
+        <f>_xll.qlQuoteValue(D25,Model!$E$11:$E$32)</f>
+        <v>-1.2900000000000001E-3</v>
       </c>
       <c r="D25" s="34" t="str">
         <f t="shared" si="5"/>
@@ -4882,8 +5083,8 @@
         <v>113</v>
       </c>
       <c r="F25" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G25" s="33" t="s">
         <v>95</v>
@@ -4892,13 +5093,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS15M</v>
       </c>
-      <c r="I25" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J25" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I25" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.129</v>
+      </c>
+      <c r="J25" s="35">
+        <f t="shared" si="3"/>
+        <v>-0.129</v>
       </c>
       <c r="K25" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H25,$I$4:$J$4,$I25:$J25,"SCOPE:SERVER"),"--")</f>
@@ -4910,48 +5111,48 @@
       </c>
       <c r="M25" s="35">
         <f>_xll.RtGet(K$4,$H25,$I$4)</f>
-        <v>-3.3000000000000002E-2</v>
+        <v>-0.129</v>
       </c>
       <c r="N25" s="35">
         <f>_xll.RtGet(L$4,$H25,$I$4)</f>
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="O25" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.129</v>
+      </c>
+      <c r="O25" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P25" t="str">
-        <f>_xll.qlMakeOIS(,E25,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081b#0001</v>
-      </c>
-      <c r="Q25" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P25,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R25" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S25" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T25" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E25,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a87#0000</v>
+      </c>
+      <c r="Q25" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P25,InterestRatesTrigger)</f>
+        <v>-1.2899999994892915E-3</v>
+      </c>
+      <c r="R25" s="31">
+        <f t="shared" si="6"/>
+        <v>5.1070866285973793E-13</v>
+      </c>
+      <c r="S25" s="31">
+        <f t="shared" si="7"/>
+        <v>5.1070866285973793E-13</v>
+      </c>
+      <c r="T25" s="31">
+        <f t="shared" si="8"/>
+        <v>5.1070866285973793E-13</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>1.3333333333333333</v>
       </c>
-      <c r="B26" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A26)</f>
-        <v>#NAME?</v>
+      <c r="B26" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A26)</f>
+        <v>-1.2848310028892242E-3</v>
       </c>
       <c r="C26" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D26,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D26,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="5"/>
@@ -4961,7 +5162,7 @@
         <v>119</v>
       </c>
       <c r="F26" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -4971,13 +5172,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS16M</v>
       </c>
-      <c r="I26" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J26" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I26" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.128</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.128</v>
       </c>
       <c r="K26" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H26,$I$4:$J$4,$I26:$J26,"SCOPE:SERVER"),"--")</f>
@@ -4989,48 +5190,48 @@
       </c>
       <c r="M26" s="5">
         <f>_xll.RtGet(K$4,$H26,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.129</v>
       </c>
       <c r="N26" s="5">
         <f>_xll.RtGet(L$4,$H26,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="O26" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.129</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-3</v>
       </c>
       <c r="P26" t="str">
-        <f>_xll.qlMakeOIS(,E26,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081e#0001</v>
-      </c>
-      <c r="Q26" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P26,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E26,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a86#0000</v>
+      </c>
+      <c r="Q26" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P26,InterestRatesTrigger)</f>
+        <v>-1.281531376900163E-3</v>
       </c>
       <c r="R26" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S26" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T26" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S26" s="31">
+        <f t="shared" si="7"/>
+        <v>3.2996259890611616E-6</v>
+      </c>
+      <c r="T26" s="31">
+        <f t="shared" si="8"/>
+        <v>-1.5313769001629174E-6</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>1.4166666666666667</v>
       </c>
-      <c r="B27" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A27)</f>
-        <v>#NAME?</v>
+      <c r="B27" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A27)</f>
+        <v>-1.2788450951115987E-3</v>
       </c>
       <c r="C27" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D27,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D27,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="5"/>
@@ -5040,7 +5241,7 @@
         <v>120</v>
       </c>
       <c r="F27" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -5050,13 +5251,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS17M</v>
       </c>
-      <c r="I27" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J27" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I27" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.128</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.128</v>
       </c>
       <c r="K27" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H27,$I$4:$J$4,$I27:$J27,"SCOPE:SERVER"),"--")</f>
@@ -5068,48 +5269,48 @@
       </c>
       <c r="M27" s="5">
         <f>_xll.RtGet(K$4,$H27,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.128</v>
       </c>
       <c r="N27" s="5">
         <f>_xll.RtGet(L$4,$H27,$I$4)</f>
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="O27" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.128</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P27" t="str">
-        <f>_xll.qlMakeOIS(,E27,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00834#0001</v>
-      </c>
-      <c r="Q27" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P27,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E27,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a63#0000</v>
+      </c>
+      <c r="Q27" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P27,InterestRatesTrigger)</f>
+        <v>-1.2749282999040394E-3</v>
       </c>
       <c r="R27" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S27" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T27" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S27" s="31">
+        <f t="shared" si="7"/>
+        <v>3.9167952075593818E-6</v>
+      </c>
+      <c r="T27" s="31">
+        <f t="shared" si="8"/>
+        <v>5.071700095960743E-6</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="32">
         <v>1.5</v>
       </c>
-      <c r="B28" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A28)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C28" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D28,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B28" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A28)</f>
+        <v>-1.2700000000000001E-3</v>
+      </c>
+      <c r="C28" s="33">
+        <f>_xll.qlQuoteValue(D28,Model!$E$11:$E$32)</f>
+        <v>-1.2700000000000001E-3</v>
       </c>
       <c r="D28" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5119,8 +5320,8 @@
         <v>114</v>
       </c>
       <c r="F28" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G28" s="33" t="s">
         <v>96</v>
@@ -5129,13 +5330,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS18M</v>
       </c>
-      <c r="I28" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J28" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I28" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.127</v>
+      </c>
+      <c r="J28" s="35">
+        <f t="shared" si="3"/>
+        <v>-0.127</v>
       </c>
       <c r="K28" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H28,$I$4:$J$4,$I28:$J28,"SCOPE:SERVER"),"--")</f>
@@ -5147,48 +5348,48 @@
       </c>
       <c r="M28" s="35">
         <f>_xll.RtGet(K$4,$H28,$I$4)</f>
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.127</v>
       </c>
       <c r="N28" s="35">
         <f>_xll.RtGet(L$4,$H28,$I$4)</f>
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="O28" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.127</v>
+      </c>
+      <c r="O28" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P28" t="str">
-        <f>_xll.qlMakeOIS(,E28,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0083a#0001</v>
-      </c>
-      <c r="Q28" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P28,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R28" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S28" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T28" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E28,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a69#0000</v>
+      </c>
+      <c r="Q28" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P28,InterestRatesTrigger)</f>
+        <v>-1.2699999999999808E-3</v>
+      </c>
+      <c r="R28" s="31">
+        <f t="shared" si="6"/>
+        <v>1.9298798670241979E-17</v>
+      </c>
+      <c r="S28" s="31">
+        <f t="shared" si="7"/>
+        <v>1.9298798670241979E-17</v>
+      </c>
+      <c r="T28" s="31">
+        <f t="shared" si="8"/>
+        <v>1.9298798670241979E-17</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>1.5833333333333335</v>
       </c>
-      <c r="B29" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A29)</f>
-        <v>#NAME?</v>
+      <c r="B29" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A29)</f>
+        <v>-1.2567761511098924E-3</v>
       </c>
       <c r="C29" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D29,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D29,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="5"/>
@@ -5198,7 +5399,7 @@
         <v>121</v>
       </c>
       <c r="F29" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -5208,13 +5409,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS19M</v>
       </c>
-      <c r="I29" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J29" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I29" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.126</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.126</v>
       </c>
       <c r="K29" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H29,$I$4:$J$4,$I29:$J29,"SCOPE:SERVER"),"--")</f>
@@ -5226,48 +5427,48 @@
       </c>
       <c r="M29" s="5">
         <f>_xll.RtGet(K$4,$H29,$I$4)</f>
-        <v>-3.1E-2</v>
+        <v>-0.126</v>
       </c>
       <c r="N29" s="5">
         <f>_xll.RtGet(L$4,$H29,$I$4)</f>
-        <v>-3.1E-2</v>
-      </c>
-      <c r="O29" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.126</v>
+      </c>
+      <c r="O29" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P29" t="str">
-        <f>_xll.qlMakeOIS(,E29,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082e#0001</v>
-      </c>
-      <c r="Q29" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P29,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E29,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a88#0000</v>
+      </c>
+      <c r="Q29" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P29,InterestRatesTrigger)</f>
+        <v>-1.2329648484470381E-3</v>
       </c>
       <c r="R29" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S29" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T29" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S29" s="31">
+        <f t="shared" si="7"/>
+        <v>2.3811302662854299E-5</v>
+      </c>
+      <c r="T29" s="31">
+        <f t="shared" si="8"/>
+        <v>2.7035151552961927E-5</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>1.6666666666666665</v>
       </c>
-      <c r="B30" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A30)</f>
-        <v>#NAME?</v>
+      <c r="B30" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A30)</f>
+        <v>-1.2397448228870915E-3</v>
       </c>
       <c r="C30" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D30,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D30,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="5"/>
@@ -5277,7 +5478,7 @@
         <v>122</v>
       </c>
       <c r="F30" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -5287,13 +5488,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS20M</v>
       </c>
-      <c r="I30" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J30" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I30" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.124</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.124</v>
       </c>
       <c r="K30" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H30,$I$4:$J$4,$I30:$J30,"SCOPE:SERVER"),"--")</f>
@@ -5305,48 +5506,48 @@
       </c>
       <c r="M30" s="5">
         <f>_xll.RtGet(K$4,$H30,$I$4)</f>
-        <v>-3.1E-2</v>
+        <v>-0.124</v>
       </c>
       <c r="N30" s="5">
         <f>_xll.RtGet(L$4,$H30,$I$4)</f>
-        <v>-3.1E-2</v>
-      </c>
-      <c r="O30" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.124</v>
+      </c>
+      <c r="O30" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P30" t="str">
-        <f>_xll.qlMakeOIS(,E30,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00815#0001</v>
-      </c>
-      <c r="Q30" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P30,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E30,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a81#0000</v>
+      </c>
+      <c r="Q30" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P30,InterestRatesTrigger)</f>
+        <v>-1.2291103160274623E-3</v>
       </c>
       <c r="R30" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S30" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T30" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S30" s="31">
+        <f t="shared" si="7"/>
+        <v>1.0634506859629172E-5</v>
+      </c>
+      <c r="T30" s="31">
+        <f t="shared" si="8"/>
+        <v>1.0889683972537716E-5</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="32">
         <v>1.75</v>
       </c>
-      <c r="B31" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A31)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C31" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D31,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B31" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A31)</f>
+        <v>-1.2199999999999999E-3</v>
+      </c>
+      <c r="C31" s="33">
+        <f>_xll.qlQuoteValue(D31,Model!$E$11:$E$32)</f>
+        <v>-1.2199999999999999E-3</v>
       </c>
       <c r="D31" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5356,8 +5557,8 @@
         <v>115</v>
       </c>
       <c r="F31" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G31" s="33" t="s">
         <v>97</v>
@@ -5366,13 +5567,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS21M</v>
       </c>
-      <c r="I31" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J31" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I31" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.122</v>
+      </c>
+      <c r="J31" s="35">
+        <f t="shared" si="3"/>
+        <v>-0.122</v>
       </c>
       <c r="K31" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H31,$I$4:$J$4,$I31:$J31,"SCOPE:SERVER"),"--")</f>
@@ -5384,48 +5585,48 @@
       </c>
       <c r="M31" s="35">
         <f>_xll.RtGet(K$4,$H31,$I$4)</f>
-        <v>-3.1E-2</v>
+        <v>-0.122</v>
       </c>
       <c r="N31" s="35">
         <f>_xll.RtGet(L$4,$H31,$I$4)</f>
-        <v>-3.1E-2</v>
-      </c>
-      <c r="O31" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.122</v>
+      </c>
+      <c r="O31" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P31" t="str">
-        <f>_xll.qlMakeOIS(,E31,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00816#0001</v>
-      </c>
-      <c r="Q31" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P31,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R31" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S31" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T31" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E31,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a7e#0000</v>
+      </c>
+      <c r="Q31" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P31,InterestRatesTrigger)</f>
+        <v>-1.2200000000000158E-3</v>
+      </c>
+      <c r="R31" s="31">
+        <f t="shared" si="6"/>
+        <v>-1.5829351718288365E-17</v>
+      </c>
+      <c r="S31" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.5829351718288365E-17</v>
+      </c>
+      <c r="T31" s="31">
+        <f t="shared" si="8"/>
+        <v>-1.5829351718288365E-17</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="22">
         <v>1.8333333333333335</v>
       </c>
-      <c r="B32" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A32)</f>
-        <v>#NAME?</v>
+      <c r="B32" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A32)</f>
+        <v>-1.1984347630415765E-3</v>
       </c>
       <c r="C32" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D32,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D32,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="5"/>
@@ -5435,7 +5636,7 @@
         <v>123</v>
       </c>
       <c r="F32" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -5445,13 +5646,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS22M</v>
       </c>
-      <c r="I32" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J32" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I32" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.12</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.12</v>
       </c>
       <c r="K32" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H32,$I$4:$J$4,$I32:$J32,"SCOPE:SERVER"),"--")</f>
@@ -5463,48 +5664,48 @@
       </c>
       <c r="M32" s="5">
         <f>_xll.RtGet(K$4,$H32,$I$4)</f>
-        <v>-2.9000000000000001E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="N32" s="5">
         <f>_xll.RtGet(L$4,$H32,$I$4)</f>
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="O32" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.12</v>
+      </c>
+      <c r="O32" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P32" t="str">
-        <f>_xll.qlMakeOIS(,E32,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00818#0001</v>
-      </c>
-      <c r="Q32" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P32,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E32,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a8c#0000</v>
+      </c>
+      <c r="Q32" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P32,InterestRatesTrigger)</f>
+        <v>-1.20027522243719E-3</v>
       </c>
       <c r="R32" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S32" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T32" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S32" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.8404593956134786E-6</v>
+      </c>
+      <c r="T32" s="31">
+        <f t="shared" si="8"/>
+        <v>-2.7522243719007959E-7</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="22">
         <v>1.9166666666666665</v>
       </c>
-      <c r="B33" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A33)</f>
-        <v>#NAME?</v>
+      <c r="B33" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A33)</f>
+        <v>-1.1751385763029991E-3</v>
       </c>
       <c r="C33" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D33,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D33,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="5"/>
@@ -5514,7 +5715,7 @@
         <v>124</v>
       </c>
       <c r="F33" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -5524,13 +5725,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS23M</v>
       </c>
-      <c r="I33" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J33" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I33" s="5">
+        <f t="shared" si="2"/>
+        <v>-0.11800000000000001</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="3"/>
+        <v>-0.11800000000000001</v>
       </c>
       <c r="K33" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H33,$I$4:$J$4,$I33:$J33,"SCOPE:SERVER"),"--")</f>
@@ -5542,48 +5743,48 @@
       </c>
       <c r="M33" s="5">
         <f>_xll.RtGet(K$4,$H33,$I$4)</f>
-        <v>-2.8000000000000001E-2</v>
+        <v>-0.11799999999999999</v>
       </c>
       <c r="N33" s="5">
         <f>_xll.RtGet(L$4,$H33,$I$4)</f>
-        <v>-2.8000000000000001E-2</v>
-      </c>
-      <c r="O33" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P33" t="str">
-        <f>_xll.qlMakeOIS(,E33,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081d#0001</v>
-      </c>
-      <c r="Q33" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P33,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E33,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a6a#0000</v>
+      </c>
+      <c r="Q33" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P33,InterestRatesTrigger)</f>
+        <v>-1.1771003971876529E-3</v>
       </c>
       <c r="R33" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S33" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T33" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S33" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.961820884653848E-6</v>
+      </c>
+      <c r="T33" s="31">
+        <f t="shared" si="8"/>
+        <v>2.8996028123471317E-6</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="32">
         <v>2</v>
       </c>
-      <c r="B34" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A34)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C34" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D34,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B34" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A34)</f>
+        <v>-1.15E-3</v>
+      </c>
+      <c r="C34" s="33">
+        <f>_xll.qlQuoteValue(D34,Model!$E$11:$E$32)</f>
+        <v>-1.15E-3</v>
       </c>
       <c r="D34" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5593,8 +5794,8 @@
         <v>4</v>
       </c>
       <c r="F34" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G34" s="33" t="s">
         <v>98</v>
@@ -5603,13 +5804,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS2Y</v>
       </c>
-      <c r="I34" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J34" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I34" s="35">
+        <f t="shared" si="2"/>
+        <v>-0.11499999999999999</v>
+      </c>
+      <c r="J34" s="35">
+        <f t="shared" si="3"/>
+        <v>-0.11499999999999999</v>
       </c>
       <c r="K34" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H34,$I$4:$J$4,$I34:$J34,"SCOPE:SERVER"),"--")</f>
@@ -5621,48 +5822,48 @@
       </c>
       <c r="M34" s="35">
         <f>_xll.RtGet(K$4,$H34,$I$4)</f>
-        <v>-2.7E-2</v>
+        <v>-0.11599999999999999</v>
       </c>
       <c r="N34" s="35">
         <f>_xll.RtGet(L$4,$H34,$I$4)</f>
-        <v>-2.7E-2</v>
-      </c>
-      <c r="O34" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-0.11599999999999999</v>
+      </c>
+      <c r="O34" s="35">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-3</v>
       </c>
       <c r="P34" t="str">
-        <f>_xll.qlMakeOIS(,E34,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00822#0001</v>
-      </c>
-      <c r="Q34" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P34,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R34" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S34" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T34" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E34,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a66#0000</v>
+      </c>
+      <c r="Q34" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P34,InterestRatesTrigger)</f>
+        <v>-1.1499999999999308E-3</v>
+      </c>
+      <c r="R34" s="31">
+        <f t="shared" si="6"/>
+        <v>6.9172098604575183E-17</v>
+      </c>
+      <c r="S34" s="31">
+        <f t="shared" si="7"/>
+        <v>6.9172098604575183E-17</v>
+      </c>
+      <c r="T34" s="31">
+        <f t="shared" si="8"/>
+        <v>6.9172098604575183E-17</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="32">
         <v>3</v>
       </c>
-      <c r="B35" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A35)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C35" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D35,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B35" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A35)</f>
+        <v>-6.8000000000000005E-4</v>
+      </c>
+      <c r="C35" s="33">
+        <f>_xll.qlQuoteValue(D35,Model!$E$11:$E$32)</f>
+        <v>-6.8000000000000005E-4</v>
       </c>
       <c r="D35" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5672,8 +5873,8 @@
         <v>5</v>
       </c>
       <c r="F35" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G35" s="33" t="s">
         <v>99</v>
@@ -5682,13 +5883,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS3Y</v>
       </c>
-      <c r="I35" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J35" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I35" s="35">
+        <f t="shared" si="2"/>
+        <v>-6.8000000000000005E-2</v>
+      </c>
+      <c r="J35" s="35">
+        <f t="shared" si="3"/>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="K35" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H35,$I$4:$J$4,$I35:$J35,"SCOPE:SERVER"),"--")</f>
@@ -5700,48 +5901,48 @@
       </c>
       <c r="M35" s="35">
         <f>_xll.RtGet(K$4,$H35,$I$4)</f>
-        <v>1.2E-2</v>
+        <v>-6.7999999999999991E-2</v>
       </c>
       <c r="N35" s="35">
         <f>_xll.RtGet(L$4,$H35,$I$4)</f>
-        <v>1.2E-2</v>
-      </c>
-      <c r="O35" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>-6.7999999999999991E-2</v>
+      </c>
+      <c r="O35" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P35" t="str">
-        <f>_xll.qlMakeOIS(,E35,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00817#0001</v>
-      </c>
-      <c r="Q35" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P35,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R35" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S35" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T35" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E35,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a67#0000</v>
+      </c>
+      <c r="Q35" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P35,InterestRatesTrigger)</f>
+        <v>-6.8000000000011313E-4</v>
+      </c>
+      <c r="R35" s="31">
+        <f t="shared" si="6"/>
+        <v>-1.1308228659023811E-16</v>
+      </c>
+      <c r="S35" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.1308228659023811E-16</v>
+      </c>
+      <c r="T35" s="31">
+        <f t="shared" si="8"/>
+        <v>-1.1308228659023811E-16</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="32">
         <v>4</v>
       </c>
-      <c r="B36" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A36)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C36" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D36,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B36" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A36)</f>
+        <v>1.2E-4</v>
+      </c>
+      <c r="C36" s="33">
+        <f>_xll.qlQuoteValue(D36,Model!$E$11:$E$32)</f>
+        <v>1.2E-4</v>
       </c>
       <c r="D36" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5751,8 +5952,8 @@
         <v>6</v>
       </c>
       <c r="F36" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G36" s="33" t="s">
         <v>100</v>
@@ -5761,13 +5962,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS4Y</v>
       </c>
-      <c r="I36" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J36" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I36" s="35">
+        <f t="shared" si="2"/>
+        <v>1.2E-2</v>
+      </c>
+      <c r="J36" s="35">
+        <f t="shared" si="3"/>
+        <v>1.2E-2</v>
       </c>
       <c r="K36" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H36,$I$4:$J$4,$I36:$J36,"SCOPE:SERVER"),"--")</f>
@@ -5779,48 +5980,48 @@
       </c>
       <c r="M36" s="35">
         <f>_xll.RtGet(K$4,$H36,$I$4)</f>
-        <v>7.6999999999999999E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="N36" s="35">
         <f>_xll.RtGet(L$4,$H36,$I$4)</f>
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="O36" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.2E-2</v>
+      </c>
+      <c r="O36" s="35">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P36" t="str">
-        <f>_xll.qlMakeOIS(,E36,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00832#0001</v>
-      </c>
-      <c r="Q36" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P36,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R36" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S36" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T36" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E36,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a71#0000</v>
+      </c>
+      <c r="Q36" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P36,InterestRatesTrigger)</f>
+        <v>1.2000000009129393E-4</v>
+      </c>
+      <c r="R36" s="31">
+        <f t="shared" si="6"/>
+        <v>9.1293929339007762E-14</v>
+      </c>
+      <c r="S36" s="31">
+        <f t="shared" si="7"/>
+        <v>9.1293929339007762E-14</v>
+      </c>
+      <c r="T36" s="31">
+        <f t="shared" si="8"/>
+        <v>9.1293929339007762E-14</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="32">
         <v>5</v>
       </c>
-      <c r="B37" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A37)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C37" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D37,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B37" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A37)</f>
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="C37" s="33">
+        <f>_xll.qlQuoteValue(D37,Model!$E$11:$E$32)</f>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="D37" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5830,8 +6031,8 @@
         <v>7</v>
       </c>
       <c r="F37" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G37" s="33" t="s">
         <v>101</v>
@@ -5840,13 +6041,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS5Y</v>
       </c>
-      <c r="I37" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J37" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I37" s="35">
+        <f t="shared" si="2"/>
+        <v>0.11299999999999999</v>
+      </c>
+      <c r="J37" s="35">
+        <f t="shared" si="3"/>
+        <v>0.11299999999999999</v>
       </c>
       <c r="K37" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H37,$I$4:$J$4,$I37:$J37,"SCOPE:SERVER"),"--")</f>
@@ -5858,48 +6059,48 @@
       </c>
       <c r="M37" s="35">
         <f>_xll.RtGet(K$4,$H37,$I$4)</f>
-        <v>0.16600000000000001</v>
+        <v>0.11200000000000002</v>
       </c>
       <c r="N37" s="35">
         <f>_xll.RtGet(L$4,$H37,$I$4)</f>
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="O37" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.11200000000000002</v>
+      </c>
+      <c r="O37" s="35">
+        <f t="shared" si="4"/>
+        <v>-9.9999999999997313E-4</v>
       </c>
       <c r="P37" t="str">
-        <f>_xll.qlMakeOIS(,E37,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00830#0001</v>
-      </c>
-      <c r="Q37" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P37,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R37" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S37" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T37" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E37,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a7f#0000</v>
+      </c>
+      <c r="Q37" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P37,InterestRatesTrigger)</f>
+        <v>1.1299999999999455E-3</v>
+      </c>
+      <c r="R37" s="31">
+        <f t="shared" si="6"/>
+        <v>-5.4426949058772323E-17</v>
+      </c>
+      <c r="S37" s="31">
+        <f t="shared" si="7"/>
+        <v>-5.4426949058772323E-17</v>
+      </c>
+      <c r="T37" s="31">
+        <f t="shared" si="8"/>
+        <v>-5.4426949058772323E-17</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="32">
         <v>6</v>
       </c>
-      <c r="B38" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A38)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C38" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D38,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B38" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A38)</f>
+        <v>2.2699999999999999E-3</v>
+      </c>
+      <c r="C38" s="33">
+        <f>_xll.qlQuoteValue(D38,Model!$E$11:$E$32)</f>
+        <v>2.2699999999999999E-3</v>
       </c>
       <c r="D38" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5909,8 +6110,8 @@
         <v>8</v>
       </c>
       <c r="F38" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G38" s="33" t="s">
         <v>102</v>
@@ -5919,13 +6120,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS6Y</v>
       </c>
-      <c r="I38" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J38" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I38" s="35">
+        <f t="shared" si="2"/>
+        <v>0.22699999999999998</v>
+      </c>
+      <c r="J38" s="35">
+        <f t="shared" si="3"/>
+        <v>0.22699999999999998</v>
       </c>
       <c r="K38" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H38,$I$4:$J$4,$I38:$J38,"SCOPE:SERVER"),"--")</f>
@@ -5937,48 +6138,48 @@
       </c>
       <c r="M38" s="35">
         <f>_xll.RtGet(K$4,$H38,$I$4)</f>
-        <v>0.27600000000000002</v>
+        <v>0.22599999999999998</v>
       </c>
       <c r="N38" s="35">
         <f>_xll.RtGet(L$4,$H38,$I$4)</f>
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="O38" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.22599999999999998</v>
+      </c>
+      <c r="O38" s="35">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-3</v>
       </c>
       <c r="P38" t="str">
-        <f>_xll.qlMakeOIS(,E38,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082b#0001</v>
-      </c>
-      <c r="Q38" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P38,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R38" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S38" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T38" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E38,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a79#0000</v>
+      </c>
+      <c r="Q38" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P38,InterestRatesTrigger)</f>
+        <v>2.270000000000061E-3</v>
+      </c>
+      <c r="R38" s="31">
+        <f t="shared" si="6"/>
+        <v>6.114900252818245E-17</v>
+      </c>
+      <c r="S38" s="31">
+        <f t="shared" si="7"/>
+        <v>6.114900252818245E-17</v>
+      </c>
+      <c r="T38" s="31">
+        <f t="shared" si="8"/>
+        <v>6.114900252818245E-17</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="32">
         <v>7</v>
       </c>
-      <c r="B39" s="33" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A39)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C39" s="33" t="e">
-        <f ca="1">_xll.qlQuoteValue(D39,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B39" s="33">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A39)</f>
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="C39" s="33">
+        <f>_xll.qlQuoteValue(D39,Model!$E$11:$E$32)</f>
+        <v>3.4399999999999999E-3</v>
       </c>
       <c r="D39" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5988,8 +6189,8 @@
         <v>9</v>
       </c>
       <c r="F39" s="33" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G39" s="33" t="s">
         <v>103</v>
@@ -5998,13 +6199,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS7Y</v>
       </c>
-      <c r="I39" s="35" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J39" s="35" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I39" s="35">
+        <f t="shared" si="2"/>
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="J39" s="35">
+        <f t="shared" si="3"/>
+        <v>0.34399999999999997</v>
       </c>
       <c r="K39" s="34" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H39,$I$4:$J$4,$I39:$J39,"SCOPE:SERVER"),"--")</f>
@@ -6016,48 +6217,48 @@
       </c>
       <c r="M39" s="35">
         <f>_xll.RtGet(K$4,$H39,$I$4)</f>
-        <v>0.40200000000000002</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="N39" s="35">
         <f>_xll.RtGet(L$4,$H39,$I$4)</f>
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="O39" s="35" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="O39" s="35">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="P39" t="str">
-        <f>_xll.qlMakeOIS(,E39,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00814#0001</v>
-      </c>
-      <c r="Q39" s="36" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P39,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R39" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S39" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T39" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E39,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a89#0000</v>
+      </c>
+      <c r="Q39" s="36">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P39,InterestRatesTrigger)</f>
+        <v>3.4400000000000767E-3</v>
+      </c>
+      <c r="R39" s="31">
+        <f t="shared" si="6"/>
+        <v>7.6761513811973714E-17</v>
+      </c>
+      <c r="S39" s="31">
+        <f t="shared" si="7"/>
+        <v>7.6761513811973714E-17</v>
+      </c>
+      <c r="T39" s="31">
+        <f t="shared" si="8"/>
+        <v>7.6761513811973714E-17</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="22">
         <v>8</v>
       </c>
-      <c r="B40" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A40)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C40" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D40,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B40" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A40)</f>
+        <v>4.5399999999999998E-3</v>
+      </c>
+      <c r="C40" s="1">
+        <f>_xll.qlQuoteValue(D40,Model!$E$11:$E$32)</f>
+        <v>4.5399999999999998E-3</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="5"/>
@@ -6067,8 +6268,8 @@
         <v>10</v>
       </c>
       <c r="F40" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>104</v>
@@ -6077,13 +6278,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS8Y</v>
       </c>
-      <c r="I40" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J40" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I40" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45399999999999996</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="3"/>
+        <v>0.45399999999999996</v>
       </c>
       <c r="K40" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H40,$I$4:$J$4,$I40:$J40,"SCOPE:SERVER"),"--")</f>
@@ -6095,48 +6296,48 @@
       </c>
       <c r="M40" s="5">
         <f>_xll.RtGet(K$4,$H40,$I$4)</f>
-        <v>0.53300000000000003</v>
+        <v>0.45199999999999996</v>
       </c>
       <c r="N40" s="5">
         <f>_xll.RtGet(L$4,$H40,$I$4)</f>
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="O40" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.45199999999999996</v>
+      </c>
+      <c r="O40" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="P40" t="str">
-        <f>_xll.qlMakeOIS(,E40,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00833#0001</v>
-      </c>
-      <c r="Q40" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P40,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R40" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S40" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T40" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E40,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a6e#0000</v>
+      </c>
+      <c r="Q40" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P40,InterestRatesTrigger)</f>
+        <v>4.5400000000000648E-3</v>
+      </c>
+      <c r="R40" s="31">
+        <f t="shared" si="6"/>
+        <v>6.5052130349130266E-17</v>
+      </c>
+      <c r="S40" s="31">
+        <f t="shared" si="7"/>
+        <v>6.5052130349130266E-17</v>
+      </c>
+      <c r="T40" s="31">
+        <f t="shared" si="8"/>
+        <v>6.5052130349130266E-17</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="22">
         <v>9</v>
       </c>
-      <c r="B41" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A41)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C41" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D41,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B41" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A41)</f>
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="C41" s="1">
+        <f>_xll.qlQuoteValue(D41,Model!$E$11:$E$32)</f>
+        <v>5.5500000000000002E-3</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="5"/>
@@ -6146,8 +6347,8 @@
         <v>11</v>
       </c>
       <c r="F41" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>105</v>
@@ -6156,13 +6357,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS9Y</v>
       </c>
-      <c r="I41" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J41" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I41" s="5">
+        <f t="shared" si="2"/>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55500000000000005</v>
       </c>
       <c r="K41" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H41,$I$4:$J$4,$I41:$J41,"SCOPE:SERVER"),"--")</f>
@@ -6174,48 +6375,48 @@
       </c>
       <c r="M41" s="5">
         <f>_xll.RtGet(K$4,$H41,$I$4)</f>
-        <v>0.65900000000000003</v>
+        <v>0.55199999999999994</v>
       </c>
       <c r="N41" s="5">
         <f>_xll.RtGet(L$4,$H41,$I$4)</f>
-        <v>0.65900000000000003</v>
-      </c>
-      <c r="O41" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.55199999999999994</v>
+      </c>
+      <c r="O41" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.0000000000001137E-3</v>
       </c>
       <c r="P41" t="str">
-        <f>_xll.qlMakeOIS(,E41,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082a#0001</v>
-      </c>
-      <c r="Q41" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P41,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R41" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S41" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T41" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E41,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a75#0000</v>
+      </c>
+      <c r="Q41" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P41,InterestRatesTrigger)</f>
+        <v>5.5500000000000202E-3</v>
+      </c>
+      <c r="R41" s="31">
+        <f t="shared" si="6"/>
+        <v>1.9949319973733282E-17</v>
+      </c>
+      <c r="S41" s="31">
+        <f t="shared" si="7"/>
+        <v>1.9949319973733282E-17</v>
+      </c>
+      <c r="T41" s="31">
+        <f t="shared" si="8"/>
+        <v>1.9949319973733282E-17</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="22">
         <v>10</v>
       </c>
-      <c r="B42" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A42)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C42" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D42,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B42" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A42)</f>
+        <v>6.43E-3</v>
+      </c>
+      <c r="C42" s="1">
+        <f>_xll.qlQuoteValue(D42,Model!$E$11:$E$32)</f>
+        <v>6.43E-3</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="5"/>
@@ -6225,8 +6426,8 @@
         <v>12</v>
       </c>
       <c r="F42" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>106</v>
@@ -6235,13 +6436,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS10Y</v>
       </c>
-      <c r="I42" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J42" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I42" s="5">
+        <f t="shared" si="2"/>
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="3"/>
+        <v>0.64300000000000002</v>
       </c>
       <c r="K42" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H42,$I$4:$J$4,$I42:$J42,"SCOPE:SERVER"),"--")</f>
@@ -6253,48 +6454,48 @@
       </c>
       <c r="M42" s="5">
         <f>_xll.RtGet(K$4,$H42,$I$4)</f>
-        <v>0.77800000000000002</v>
+        <v>0.64</v>
       </c>
       <c r="N42" s="5">
         <f>_xll.RtGet(L$4,$H42,$I$4)</f>
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="O42" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.64</v>
+      </c>
+      <c r="O42" s="5">
+        <f t="shared" si="4"/>
+        <v>-3.0000000000000027E-3</v>
       </c>
       <c r="P42" t="str">
-        <f>_xll.qlMakeOIS(,E42,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00813#0001</v>
-      </c>
-      <c r="Q42" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P42,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R42" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S42" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T42" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E42,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a6c#0000</v>
+      </c>
+      <c r="Q42" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P42,InterestRatesTrigger)</f>
+        <v>6.4299999999999973E-3</v>
+      </c>
+      <c r="R42" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="22">
         <v>11</v>
       </c>
-      <c r="B43" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A43)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C43" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D43,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B43" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A43)</f>
+        <v>7.2199999999999999E-3</v>
+      </c>
+      <c r="C43" s="1">
+        <f>_xll.qlQuoteValue(D43,Model!$E$11:$E$32)</f>
+        <v>7.2199999999999999E-3</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="5"/>
@@ -6304,8 +6505,8 @@
         <v>13</v>
       </c>
       <c r="F43" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>107</v>
@@ -6314,13 +6515,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS11Y</v>
       </c>
-      <c r="I43" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J43" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I43" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="3"/>
+        <v>0.72199999999999998</v>
       </c>
       <c r="K43" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H43,$I$4:$J$4,$I43:$J43,"SCOPE:SERVER"),"--")</f>
@@ -6332,48 +6533,48 @@
       </c>
       <c r="M43" s="5">
         <f>_xll.RtGet(K$4,$H43,$I$4)</f>
-        <v>0.88200000000000001</v>
+        <v>0.71900000000000008</v>
       </c>
       <c r="N43" s="5">
         <f>_xll.RtGet(L$4,$H43,$I$4)</f>
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="O43" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.71900000000000008</v>
+      </c>
+      <c r="O43" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.9999999999998916E-3</v>
       </c>
       <c r="P43" t="str">
-        <f>_xll.qlMakeOIS(,E43,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00820#0001</v>
-      </c>
-      <c r="Q43" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P43,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R43" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S43" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T43" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E43,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a7c#0000</v>
+      </c>
+      <c r="Q43" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P43,InterestRatesTrigger)</f>
+        <v>7.2200000000000441E-3</v>
+      </c>
+      <c r="R43" s="31">
+        <f t="shared" si="6"/>
+        <v>4.4235448637408581E-17</v>
+      </c>
+      <c r="S43" s="31">
+        <f t="shared" si="7"/>
+        <v>4.4235448637408581E-17</v>
+      </c>
+      <c r="T43" s="31">
+        <f t="shared" si="8"/>
+        <v>4.4235448637408581E-17</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="22">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A44)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C44" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D44,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B44" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A44)</f>
+        <v>7.92E-3</v>
+      </c>
+      <c r="C44" s="1">
+        <f>_xll.qlQuoteValue(D44,Model!$E$11:$E$32)</f>
+        <v>7.92E-3</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="5"/>
@@ -6383,8 +6584,8 @@
         <v>14</v>
       </c>
       <c r="F44" s="1" t="b">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>108</v>
@@ -6393,13 +6594,13 @@
         <f t="shared" si="1"/>
         <v>EUROISDDS12Y</v>
       </c>
-      <c r="I44" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J44" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I44" s="5">
+        <f t="shared" si="2"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="3"/>
+        <v>0.79200000000000004</v>
       </c>
       <c r="K44" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H44,$I$4:$J$4,$I44:$J44,"SCOPE:SERVER"),"--")</f>
@@ -6411,48 +6612,48 @@
       </c>
       <c r="M44" s="5">
         <f>_xll.RtGet(K$4,$H44,$I$4)</f>
-        <v>0.97699999999999998</v>
+        <v>0.79</v>
       </c>
       <c r="N44" s="5">
         <f>_xll.RtGet(L$4,$H44,$I$4)</f>
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="O44" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.79</v>
+      </c>
+      <c r="O44" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="P44" t="str">
-        <f>_xll.qlMakeOIS(,E44,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082d#0001</v>
-      </c>
-      <c r="Q44" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P44,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R44" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S44" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T44" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E44,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a7d#0000</v>
+      </c>
+      <c r="Q44" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P44,InterestRatesTrigger)</f>
+        <v>7.919999999999993E-3</v>
+      </c>
+      <c r="R44" s="31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="31">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="22">
         <v>13</v>
       </c>
-      <c r="B45" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A45)</f>
-        <v>#NAME?</v>
+      <c r="B45" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A45)</f>
+        <v>8.5214701168197342E-3</v>
       </c>
       <c r="C45" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D45,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D45,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="5"/>
@@ -6462,7 +6663,7 @@
         <v>60</v>
       </c>
       <c r="F45" s="1" t="b">
-        <f t="shared" ref="F45:F66" ca="1" si="9">NOT(ISERROR(C45))</f>
+        <f t="shared" ref="F45:F66" si="9">NOT(ISERROR(C45))</f>
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6472,13 +6673,13 @@
         <f t="shared" ref="H45:H66" si="10">Currency&amp;H$4&amp;$E45</f>
         <v>EUROISDDS13Y</v>
       </c>
-      <c r="I45" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J45" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I45" s="5">
+        <f t="shared" si="2"/>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="3"/>
+        <v>0.85199999999999998</v>
       </c>
       <c r="K45" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H45,$I$4:$J$4,$I45:$J45,"SCOPE:SERVER"),"--")</f>
@@ -6490,48 +6691,48 @@
       </c>
       <c r="M45" s="5">
         <f>_xll.RtGet(K$4,$H45,$I$4)</f>
-        <v>1.0620000000000001</v>
+        <v>0.85099999999999998</v>
       </c>
       <c r="N45" s="5">
         <f>_xll.RtGet(L$4,$H45,$I$4)</f>
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="O45" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="O45" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000000009E-3</v>
       </c>
       <c r="P45" t="str">
-        <f>_xll.qlMakeOIS(,E45,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00824#0001</v>
-      </c>
-      <c r="Q45" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P45,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E45,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a76#0000</v>
+      </c>
+      <c r="Q45" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P45,InterestRatesTrigger)</f>
+        <v>8.5208626994897306E-3</v>
       </c>
       <c r="R45" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S45" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T45" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S45" s="31">
+        <f t="shared" si="7"/>
+        <v>-6.07417330003579E-7</v>
+      </c>
+      <c r="T45" s="31">
+        <f t="shared" si="8"/>
+        <v>8.6269948973080601E-7</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="22">
         <v>14</v>
       </c>
-      <c r="B46" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A46)</f>
-        <v>#NAME?</v>
+      <c r="B46" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A46)</f>
+        <v>9.0336699082175197E-3</v>
       </c>
       <c r="C46" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D46,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D46,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="5"/>
@@ -6541,7 +6742,7 @@
         <v>61</v>
       </c>
       <c r="F46" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -6551,13 +6752,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS14Y</v>
       </c>
-      <c r="I46" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J46" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I46" s="5">
+        <f t="shared" si="2"/>
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="3"/>
+        <v>0.90300000000000002</v>
       </c>
       <c r="K46" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H46,$I$4:$J$4,$I46:$J46,"SCOPE:SERVER"),"--")</f>
@@ -6569,48 +6770,48 @@
       </c>
       <c r="M46" s="5">
         <f>_xll.RtGet(K$4,$H46,$I$4)</f>
-        <v>1.1379999999999999</v>
+        <v>0.90199999999999991</v>
       </c>
       <c r="N46" s="5">
         <f>_xll.RtGet(L$4,$H46,$I$4)</f>
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="O46" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.90199999999999991</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000001119E-3</v>
       </c>
       <c r="P46" t="str">
-        <f>_xll.qlMakeOIS(,E46,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00828#0001</v>
-      </c>
-      <c r="Q46" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P46,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E46,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a85#0000</v>
+      </c>
+      <c r="Q46" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P46,InterestRatesTrigger)</f>
+        <v>9.0316669305376771E-3</v>
       </c>
       <c r="R46" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S46" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T46" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S46" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.0029776798425464E-6</v>
+      </c>
+      <c r="T46" s="31">
+        <f t="shared" si="8"/>
+        <v>1.6669305376772886E-6</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="22">
         <v>15</v>
       </c>
-      <c r="B47" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A47)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C47" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D47,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B47" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A47)</f>
+        <v>9.4699999999999993E-3</v>
+      </c>
+      <c r="C47" s="1">
+        <f>_xll.qlQuoteValue(D47,Model!$E$11:$E$32)</f>
+        <v>9.4699999999999993E-3</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="5"/>
@@ -6620,8 +6821,8 @@
         <v>15</v>
       </c>
       <c r="F47" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>109</v>
@@ -6630,13 +6831,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS15Y</v>
       </c>
-      <c r="I47" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J47" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I47" s="5">
+        <f t="shared" si="2"/>
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="3"/>
+        <v>0.94699999999999995</v>
       </c>
       <c r="K47" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H47,$I$4:$J$4,$I47:$J47,"SCOPE:SERVER"),"--")</f>
@@ -6648,48 +6849,48 @@
       </c>
       <c r="M47" s="5">
         <f>_xll.RtGet(K$4,$H47,$I$4)</f>
-        <v>1.2050000000000001</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="N47" s="5">
         <f>_xll.RtGet(L$4,$H47,$I$4)</f>
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="O47" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="O47" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="P47" t="str">
-        <f>_xll.qlMakeOIS(,E47,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081a#0001</v>
-      </c>
-      <c r="Q47" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P47,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R47" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S47" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T47" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E47,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a78#0000</v>
+      </c>
+      <c r="Q47" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P47,InterestRatesTrigger)</f>
+        <v>9.4699999999787142E-3</v>
+      </c>
+      <c r="R47" s="31">
+        <f t="shared" si="6"/>
+        <v>-2.1285057050235423E-14</v>
+      </c>
+      <c r="S47" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.1285057050235423E-14</v>
+      </c>
+      <c r="T47" s="31">
+        <f t="shared" si="8"/>
+        <v>-2.1285057050235423E-14</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="22">
         <v>16</v>
       </c>
-      <c r="B48" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A48)</f>
-        <v>#NAME?</v>
+      <c r="B48" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A48)</f>
+        <v>9.842560003030491E-3</v>
       </c>
       <c r="C48" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D48,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D48,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" ref="D48:D66" si="11">Currency&amp;D$4&amp;$E48&amp;D$3</f>
@@ -6699,7 +6900,7 @@
         <v>62</v>
       </c>
       <c r="F48" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -6709,13 +6910,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS16Y</v>
       </c>
-      <c r="I48" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J48" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I48" s="5">
+        <f t="shared" si="2"/>
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="3"/>
+        <v>0.98399999999999999</v>
       </c>
       <c r="K48" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H48,$I$4:$J$4,$I48:$J48,"SCOPE:SERVER"),"--")</f>
@@ -6727,48 +6928,48 @@
       </c>
       <c r="M48" s="5">
         <f>_xll.RtGet(K$4,$H48,$I$4)</f>
-        <v>1.264</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="N48" s="5">
         <f>_xll.RtGet(L$4,$H48,$I$4)</f>
-        <v>1.264</v>
-      </c>
-      <c r="O48" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="O48" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="P48" t="str">
-        <f>_xll.qlMakeOIS(,E48,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00810#0001</v>
-      </c>
-      <c r="Q48" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P48,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E48,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a62#0000</v>
+      </c>
+      <c r="Q48" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P48,InterestRatesTrigger)</f>
+        <v>9.840381548208002E-3</v>
       </c>
       <c r="R48" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S48" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T48" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S48" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.1784548224889483E-6</v>
+      </c>
+      <c r="T48" s="31">
+        <f t="shared" si="8"/>
+        <v>3.8154820800224976E-7</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="22">
         <v>17</v>
       </c>
-      <c r="B49" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A49)</f>
-        <v>#NAME?</v>
+      <c r="B49" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A49)</f>
+        <v>1.0158245468399028E-2</v>
       </c>
       <c r="C49" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D49,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D49,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="11"/>
@@ -6778,7 +6979,7 @@
         <v>63</v>
       </c>
       <c r="F49" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -6788,13 +6989,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS17Y</v>
       </c>
-      <c r="I49" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J49" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I49" s="5">
+        <f t="shared" si="2"/>
+        <v>1.016</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="3"/>
+        <v>1.016</v>
       </c>
       <c r="K49" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H49,$I$4:$J$4,$I49:$J49,"SCOPE:SERVER"),"--")</f>
@@ -6806,48 +7007,48 @@
       </c>
       <c r="M49" s="5">
         <f>_xll.RtGet(K$4,$H49,$I$4)</f>
-        <v>1.3149999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="N49" s="5">
         <f>_xll.RtGet(L$4,$H49,$I$4)</f>
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="O49" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.014</v>
+      </c>
+      <c r="O49" s="5">
+        <f t="shared" si="4"/>
+        <v>-2.0000000000000018E-3</v>
       </c>
       <c r="P49" t="str">
-        <f>_xll.qlMakeOIS(,E49,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00838#0001</v>
-      </c>
-      <c r="Q49" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P49,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E49,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a80#0000</v>
+      </c>
+      <c r="Q49" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P49,InterestRatesTrigger)</f>
+        <v>1.0155517530559004E-2</v>
       </c>
       <c r="R49" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S49" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T49" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S49" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.7279378400236337E-6</v>
+      </c>
+      <c r="T49" s="31">
+        <f t="shared" si="8"/>
+        <v>-4.4824694409965893E-6</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="22">
         <v>18</v>
       </c>
-      <c r="B50" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A50)</f>
-        <v>#NAME?</v>
+      <c r="B50" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A50)</f>
+        <v>1.0422650932252317E-2</v>
       </c>
       <c r="C50" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D50,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D50,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="11"/>
@@ -6857,7 +7058,7 @@
         <v>64</v>
       </c>
       <c r="F50" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -6867,13 +7068,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS18Y</v>
       </c>
-      <c r="I50" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J50" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I50" s="5">
+        <f t="shared" si="2"/>
+        <v>1.042</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="3"/>
+        <v>1.042</v>
       </c>
       <c r="K50" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H50,$I$4:$J$4,$I50:$J50,"SCOPE:SERVER"),"--")</f>
@@ -6885,48 +7086,48 @@
       </c>
       <c r="M50" s="5">
         <f>_xll.RtGet(K$4,$H50,$I$4)</f>
-        <v>1.36</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="N50" s="5">
         <f>_xll.RtGet(L$4,$H50,$I$4)</f>
-        <v>1.36</v>
-      </c>
-      <c r="O50" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="O50" s="5">
+        <f t="shared" si="4"/>
+        <v>-1.0000000000001119E-3</v>
       </c>
       <c r="P50" t="str">
-        <f>_xll.qlMakeOIS(,E50,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00831#0001</v>
-      </c>
-      <c r="Q50" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P50,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E50,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a77#0000</v>
+      </c>
+      <c r="Q50" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P50,InterestRatesTrigger)</f>
+        <v>1.0420637935834264E-2</v>
       </c>
       <c r="R50" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S50" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T50" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S50" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.0129964180531229E-6</v>
+      </c>
+      <c r="T50" s="31">
+        <f t="shared" si="8"/>
+        <v>6.3793583426376144E-7</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="22">
         <v>19</v>
       </c>
-      <c r="B51" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A51)</f>
-        <v>#NAME?</v>
+      <c r="B51" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A51)</f>
+        <v>1.0641370930737071E-2</v>
       </c>
       <c r="C51" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D51,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D51,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="11"/>
@@ -6936,7 +7137,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -6946,13 +7147,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS19Y</v>
       </c>
-      <c r="I51" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J51" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I51" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0640000000000001</v>
       </c>
       <c r="K51" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H51,$I$4:$J$4,$I51:$J51,"SCOPE:SERVER"),"--")</f>
@@ -6964,48 +7165,48 @@
       </c>
       <c r="M51" s="5">
         <f>_xll.RtGet(K$4,$H51,$I$4)</f>
-        <v>1.399</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="N51" s="5">
         <f>_xll.RtGet(L$4,$H51,$I$4)</f>
-        <v>1.399</v>
-      </c>
-      <c r="O51" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="O51" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P51" t="str">
-        <f>_xll.qlMakeOIS(,E51,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0080f#0001</v>
-      </c>
-      <c r="Q51" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P51,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E51,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a7b#0000</v>
+      </c>
+      <c r="Q51" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P51,InterestRatesTrigger)</f>
+        <v>1.0640780606339714E-2</v>
       </c>
       <c r="R51" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S51" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T51" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S51" s="31">
+        <f t="shared" si="7"/>
+        <v>-5.9032439735789977E-7</v>
+      </c>
+      <c r="T51" s="31">
+        <f t="shared" si="8"/>
+        <v>7.8060633971338556E-7</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="22">
         <v>20</v>
       </c>
-      <c r="B52" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A52)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C52" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D52,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B52" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A52)</f>
+        <v>1.0819999999999998E-2</v>
+      </c>
+      <c r="C52" s="1">
+        <f>_xll.qlQuoteValue(D52,Model!$E$11:$E$32)</f>
+        <v>1.0819999999999998E-2</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="11"/>
@@ -7015,8 +7216,8 @@
         <v>16</v>
       </c>
       <c r="F52" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>110</v>
@@ -7025,13 +7226,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS20Y</v>
       </c>
-      <c r="I52" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J52" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I52" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0820000000000001</v>
       </c>
       <c r="K52" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H52,$I$4:$J$4,$I52:$J52,"SCOPE:SERVER"),"--")</f>
@@ -7043,48 +7244,48 @@
       </c>
       <c r="M52" s="5">
         <f>_xll.RtGet(K$4,$H52,$I$4)</f>
-        <v>1.4319999999999999</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="N52" s="5">
         <f>_xll.RtGet(L$4,$H52,$I$4)</f>
-        <v>1.4319999999999999</v>
-      </c>
-      <c r="O52" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.0820000000000001</v>
+      </c>
+      <c r="O52" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P52" t="str">
-        <f>_xll.qlMakeOIS(,E52,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0082c#0001</v>
-      </c>
-      <c r="Q52" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P52,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R52" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S52" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T52" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E52,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a74#0000</v>
+      </c>
+      <c r="Q52" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P52,InterestRatesTrigger)</f>
+        <v>1.081999999997375E-2</v>
+      </c>
+      <c r="R52" s="31">
+        <f t="shared" si="6"/>
+        <v>-2.6248100915005068E-14</v>
+      </c>
+      <c r="S52" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.6248100915005068E-14</v>
+      </c>
+      <c r="T52" s="31">
+        <f t="shared" si="8"/>
+        <v>-2.6251570361957022E-14</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
         <v>21</v>
       </c>
-      <c r="B53" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A53)</f>
-        <v>#NAME?</v>
+      <c r="B53" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A53)</f>
+        <v>1.096431195480283E-2</v>
       </c>
       <c r="C53" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D53,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D53,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="11"/>
@@ -7094,7 +7295,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -7104,13 +7305,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS21Y</v>
       </c>
-      <c r="I53" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J53" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I53" s="5">
+        <f t="shared" si="2"/>
+        <v>1.0959999999999999</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0959999999999999</v>
       </c>
       <c r="K53" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H53,$I$4:$J$4,$I53:$J53,"SCOPE:SERVER"),"--")</f>
@@ -7122,48 +7323,48 @@
       </c>
       <c r="M53" s="5">
         <f>_xll.RtGet(K$4,$H53,$I$4)</f>
-        <v>1.4610000000000001</v>
+        <v>1.097</v>
       </c>
       <c r="N53" s="5">
         <f>_xll.RtGet(L$4,$H53,$I$4)</f>
-        <v>1.4610000000000001</v>
-      </c>
-      <c r="O53" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.097</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0000000000001119E-3</v>
       </c>
       <c r="P53" t="str">
-        <f>_xll.qlMakeOIS(,E53,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00812#0001</v>
-      </c>
-      <c r="Q53" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P53,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E53,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a61#0000</v>
+      </c>
+      <c r="Q53" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P53,InterestRatesTrigger)</f>
+        <v>1.0963571701219013E-2</v>
       </c>
       <c r="R53" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S53" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T53" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S53" s="31">
+        <f t="shared" si="7"/>
+        <v>-7.4025358381621387E-7</v>
+      </c>
+      <c r="T53" s="31">
+        <f t="shared" si="8"/>
+        <v>3.5717012190142339E-6</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>22</v>
       </c>
-      <c r="B54" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A54)</f>
-        <v>#NAME?</v>
+      <c r="B54" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A54)</f>
+        <v>1.1080797724367396E-2</v>
       </c>
       <c r="C54" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D54,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D54,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="11"/>
@@ -7173,7 +7374,7 @@
         <v>67</v>
       </c>
       <c r="F54" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -7183,13 +7384,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS22Y</v>
       </c>
-      <c r="I54" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J54" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I54" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1079999999999999</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1079999999999999</v>
       </c>
       <c r="K54" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H54,$I$4:$J$4,$I54:$J54,"SCOPE:SERVER"),"--")</f>
@@ -7201,48 +7402,48 @@
       </c>
       <c r="M54" s="5">
         <f>_xll.RtGet(K$4,$H54,$I$4)</f>
-        <v>1.4850000000000001</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="N54" s="5">
         <f>_xll.RtGet(L$4,$H54,$I$4)</f>
-        <v>1.4850000000000001</v>
-      </c>
-      <c r="O54" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.1080000000000001</v>
+      </c>
+      <c r="O54" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P54" t="str">
-        <f>_xll.qlMakeOIS(,E54,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00823#0001</v>
-      </c>
-      <c r="Q54" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P54,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E54,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a65#0000</v>
+      </c>
+      <c r="Q54" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P54,InterestRatesTrigger)</f>
+        <v>1.1078142166604627E-2</v>
       </c>
       <c r="R54" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S54" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T54" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S54" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.6555577627689758E-6</v>
+      </c>
+      <c r="T54" s="31">
+        <f t="shared" si="8"/>
+        <v>-1.8578333953727516E-6</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>23</v>
       </c>
-      <c r="B55" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A55)</f>
-        <v>#NAME?</v>
+      <c r="B55" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A55)</f>
+        <v>1.1176127516530545E-2</v>
       </c>
       <c r="C55" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D55,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D55,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="11"/>
@@ -7252,7 +7453,7 @@
         <v>68</v>
       </c>
       <c r="F55" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -7262,13 +7463,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS23Y</v>
       </c>
-      <c r="I55" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J55" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I55" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1180000000000001</v>
       </c>
       <c r="K55" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H55,$I$4:$J$4,$I55:$J55,"SCOPE:SERVER"),"--")</f>
@@ -7280,48 +7481,48 @@
       </c>
       <c r="M55" s="5">
         <f>_xll.RtGet(K$4,$H55,$I$4)</f>
-        <v>1.506</v>
+        <v>1.1179999999999999</v>
       </c>
       <c r="N55" s="5">
         <f>_xll.RtGet(L$4,$H55,$I$4)</f>
-        <v>1.506</v>
-      </c>
-      <c r="O55" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.1179999999999999</v>
+      </c>
+      <c r="O55" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P55" t="str">
-        <f>_xll.qlMakeOIS(,E55,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081f#0001</v>
-      </c>
-      <c r="Q55" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P55,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E55,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a84#0000</v>
+      </c>
+      <c r="Q55" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P55,InterestRatesTrigger)</f>
+        <v>1.1173303597758174E-2</v>
       </c>
       <c r="R55" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S55" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T55" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S55" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.8239187723714393E-6</v>
+      </c>
+      <c r="T55" s="31">
+        <f t="shared" si="8"/>
+        <v>-6.6964022418271318E-6</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>24</v>
       </c>
-      <c r="B56" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A56)</f>
-        <v>#NAME?</v>
+      <c r="B56" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A56)</f>
+        <v>1.125697153912913E-2</v>
       </c>
       <c r="C56" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D56,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D56,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="11"/>
@@ -7331,7 +7532,7 @@
         <v>69</v>
       </c>
       <c r="F56" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -7341,13 +7542,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS24Y</v>
       </c>
-      <c r="I56" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J56" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I56" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1259999999999999</v>
       </c>
       <c r="K56" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H56,$I$4:$J$4,$I56:$J56,"SCOPE:SERVER"),"--")</f>
@@ -7359,48 +7560,48 @@
       </c>
       <c r="M56" s="5">
         <f>_xll.RtGet(K$4,$H56,$I$4)</f>
-        <v>1.524</v>
+        <v>1.1259999999999999</v>
       </c>
       <c r="N56" s="5">
         <f>_xll.RtGet(L$4,$H56,$I$4)</f>
-        <v>1.524</v>
-      </c>
-      <c r="O56" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="O56" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P56" t="str">
-        <f>_xll.qlMakeOIS(,E56,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0081c#0001</v>
-      </c>
-      <c r="Q56" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P56,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E56,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a7a#0000</v>
+      </c>
+      <c r="Q56" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P56,InterestRatesTrigger)</f>
+        <v>1.1255347899995039E-2</v>
       </c>
       <c r="R56" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S56" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T56" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S56" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.6236391340903461E-6</v>
+      </c>
+      <c r="T56" s="31">
+        <f t="shared" si="8"/>
+        <v>-4.652100004959997E-6</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>25</v>
       </c>
-      <c r="B57" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A57)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C57" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D57,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B57" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A57)</f>
+        <v>1.133E-2</v>
+      </c>
+      <c r="C57" s="1">
+        <f>_xll.qlQuoteValue(D57,Model!$E$11:$E$32)</f>
+        <v>1.133E-2</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="11"/>
@@ -7410,8 +7611,8 @@
         <v>17</v>
       </c>
       <c r="F57" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>111</v>
@@ -7420,13 +7621,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS25Y</v>
       </c>
-      <c r="I57" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J57" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I57" s="5">
+        <f t="shared" si="2"/>
+        <v>1.133</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="3"/>
+        <v>1.133</v>
       </c>
       <c r="K57" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H57,$I$4:$J$4,$I57:$J57,"SCOPE:SERVER"),"--")</f>
@@ -7438,48 +7639,48 @@
       </c>
       <c r="M57" s="5">
         <f>_xll.RtGet(K$4,$H57,$I$4)</f>
-        <v>1.5389999999999999</v>
+        <v>1.133</v>
       </c>
       <c r="N57" s="5">
         <f>_xll.RtGet(L$4,$H57,$I$4)</f>
-        <v>1.5389999999999999</v>
-      </c>
-      <c r="O57" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.133</v>
+      </c>
+      <c r="O57" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P57" t="str">
-        <f>_xll.qlMakeOIS(,E57,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00839#0001</v>
-      </c>
-      <c r="Q57" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P57,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R57" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S57" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T57" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E57,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a8b#0000</v>
+      </c>
+      <c r="Q57" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P57,InterestRatesTrigger)</f>
+        <v>1.13299999999898E-2</v>
+      </c>
+      <c r="R57" s="31">
+        <f t="shared" si="6"/>
+        <v>-1.0200174038743626E-14</v>
+      </c>
+      <c r="S57" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.0200174038743626E-14</v>
+      </c>
+      <c r="T57" s="31">
+        <f t="shared" si="8"/>
+        <v>-1.0200174038743626E-14</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="22">
         <v>26</v>
       </c>
-      <c r="B58" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A58)</f>
-        <v>#NAME?</v>
+      <c r="B58" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A58)</f>
+        <v>1.1400752177758178E-2</v>
       </c>
       <c r="C58" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D58,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D58,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="11"/>
@@ -7489,7 +7690,7 @@
         <v>70</v>
       </c>
       <c r="F58" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -7499,13 +7700,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS26Y</v>
       </c>
-      <c r="I58" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J58" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I58" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1400000000000001</v>
       </c>
       <c r="K58" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H58,$I$4:$J$4,$I58:$J58,"SCOPE:SERVER"),"--")</f>
@@ -7517,48 +7718,48 @@
       </c>
       <c r="M58" s="5">
         <f>_xll.RtGet(K$4,$H58,$I$4)</f>
-        <v>1.552</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="N58" s="5">
         <f>_xll.RtGet(L$4,$H58,$I$4)</f>
-        <v>1.552</v>
-      </c>
-      <c r="O58" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="O58" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P58" t="str">
-        <f>_xll.qlMakeOIS(,E58,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00829#0001</v>
-      </c>
-      <c r="Q58" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P58,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E58,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a82#0000</v>
+      </c>
+      <c r="Q58" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P58,InterestRatesTrigger)</f>
+        <v>1.1401322260095523E-2</v>
       </c>
       <c r="R58" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S58" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T58" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S58" s="31">
+        <f t="shared" si="7"/>
+        <v>5.7008233734535951E-7</v>
+      </c>
+      <c r="T58" s="31">
+        <f t="shared" si="8"/>
+        <v>1.3222600955230257E-6</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>27</v>
       </c>
-      <c r="B59" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A59)</f>
-        <v>#NAME?</v>
+      <c r="B59" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A59)</f>
+        <v>1.1470243634131381E-2</v>
       </c>
       <c r="C59" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D59,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D59,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="11"/>
@@ -7568,7 +7769,7 @@
         <v>71</v>
       </c>
       <c r="F59" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -7578,13 +7779,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS27Y</v>
       </c>
-      <c r="I59" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J59" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I59" s="5">
+        <f t="shared" si="2"/>
+        <v>1.147</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="3"/>
+        <v>1.147</v>
       </c>
       <c r="K59" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H59,$I$4:$J$4,$I59:$J59,"SCOPE:SERVER"),"--")</f>
@@ -7596,48 +7797,48 @@
       </c>
       <c r="M59" s="5">
         <f>_xll.RtGet(K$4,$H59,$I$4)</f>
-        <v>1.5629999999999999</v>
+        <v>1.147</v>
       </c>
       <c r="N59" s="5">
         <f>_xll.RtGet(L$4,$H59,$I$4)</f>
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="O59" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.147</v>
+      </c>
+      <c r="O59" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P59" t="str">
-        <f>_xll.qlMakeOIS(,E59,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00821#0001</v>
-      </c>
-      <c r="Q59" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P59,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E59,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a72#0000</v>
+      </c>
+      <c r="Q59" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P59,InterestRatesTrigger)</f>
+        <v>1.1469927321897857E-2</v>
       </c>
       <c r="R59" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S59" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T59" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S59" s="31">
+        <f t="shared" si="7"/>
+        <v>-3.163122335239632E-7</v>
+      </c>
+      <c r="T59" s="31">
+        <f t="shared" si="8"/>
+        <v>-7.2678102144146939E-8</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
         <v>28</v>
       </c>
-      <c r="B60" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A60)</f>
-        <v>#NAME?</v>
+      <c r="B60" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A60)</f>
+        <v>1.1538359001625493E-2</v>
       </c>
       <c r="C60" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D60,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D60,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="11"/>
@@ -7647,7 +7848,7 @@
         <v>72</v>
       </c>
       <c r="F60" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -7657,13 +7858,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS28Y</v>
       </c>
-      <c r="I60" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J60" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I60" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1539999999999999</v>
       </c>
       <c r="K60" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H60,$I$4:$J$4,$I60:$J60,"SCOPE:SERVER"),"--")</f>
@@ -7675,48 +7876,48 @@
       </c>
       <c r="M60" s="5">
         <f>_xll.RtGet(K$4,$H60,$I$4)</f>
-        <v>1.573</v>
+        <v>1.1539999999999999</v>
       </c>
       <c r="N60" s="5">
         <f>_xll.RtGet(L$4,$H60,$I$4)</f>
-        <v>1.573</v>
-      </c>
-      <c r="O60" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.1539999999999999</v>
+      </c>
+      <c r="O60" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P60" t="str">
-        <f>_xll.qlMakeOIS(,E60,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00819#0001</v>
-      </c>
-      <c r="Q60" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P60,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E60,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a6b#0000</v>
+      </c>
+      <c r="Q60" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P60,InterestRatesTrigger)</f>
+        <v>1.153711010988042E-2</v>
       </c>
       <c r="R60" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S60" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T60" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S60" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.2488917450724502E-6</v>
+      </c>
+      <c r="T60" s="31">
+        <f t="shared" si="8"/>
+        <v>-2.8898901195794496E-6</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="22">
         <v>29</v>
       </c>
-      <c r="B61" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A61)</f>
-        <v>#NAME?</v>
+      <c r="B61" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A61)</f>
+        <v>1.1604982912746404E-2</v>
       </c>
       <c r="C61" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D61,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D61,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="11"/>
@@ -7726,7 +7927,7 @@
         <v>73</v>
       </c>
       <c r="F61" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -7736,13 +7937,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS29Y</v>
       </c>
-      <c r="I61" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J61" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I61" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1599999999999999</v>
       </c>
       <c r="K61" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H61,$I$4:$J$4,$I61:$J61,"SCOPE:SERVER"),"--")</f>
@@ -7754,48 +7955,48 @@
       </c>
       <c r="M61" s="5">
         <f>_xll.RtGet(K$4,$H61,$I$4)</f>
-        <v>1.5820000000000001</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="N61" s="5">
         <f>_xll.RtGet(L$4,$H61,$I$4)</f>
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="O61" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="O61" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P61" t="str">
-        <f>_xll.qlMakeOIS(,E61,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00811#0001</v>
-      </c>
-      <c r="Q61" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P61,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E61,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a8a#0000</v>
+      </c>
+      <c r="Q61" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P61,InterestRatesTrigger)</f>
+        <v>1.1603824883450433E-2</v>
       </c>
       <c r="R61" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S61" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T61" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S61" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.1580292959712662E-6</v>
+      </c>
+      <c r="T61" s="31">
+        <f t="shared" si="8"/>
+        <v>3.8248834504338303E-6</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="22">
         <v>30</v>
       </c>
-      <c r="B62" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A62)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C62" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D62,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B62" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A62)</f>
+        <v>1.167E-2</v>
+      </c>
+      <c r="C62" s="1">
+        <f>_xll.qlQuoteValue(D62,Model!$E$11:$E$32)</f>
+        <v>1.167E-2</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="11"/>
@@ -7805,8 +8006,8 @@
         <v>18</v>
       </c>
       <c r="F62" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>112</v>
@@ -7815,13 +8016,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS30Y</v>
       </c>
-      <c r="I62" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J62" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I62" s="5">
+        <f t="shared" si="2"/>
+        <v>1.167</v>
+      </c>
+      <c r="J62" s="5">
+        <f t="shared" si="3"/>
+        <v>1.167</v>
       </c>
       <c r="K62" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H62,$I$4:$J$4,$I62:$J62,"SCOPE:SERVER"),"--")</f>
@@ -7833,48 +8034,48 @@
       </c>
       <c r="M62" s="5">
         <f>_xll.RtGet(K$4,$H62,$I$4)</f>
-        <v>1.591</v>
+        <v>1.167</v>
       </c>
       <c r="N62" s="5">
         <f>_xll.RtGet(L$4,$H62,$I$4)</f>
-        <v>1.591</v>
-      </c>
-      <c r="O62" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.167</v>
+      </c>
+      <c r="O62" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P62" t="str">
-        <f>_xll.qlMakeOIS(,E62,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00835#0001</v>
-      </c>
-      <c r="Q62" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P62,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R62" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S62" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T62" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E62,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a68#0000</v>
+      </c>
+      <c r="Q62" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P62,InterestRatesTrigger)</f>
+        <v>1.1669999999972886E-2</v>
+      </c>
+      <c r="R62" s="31">
+        <f t="shared" si="6"/>
+        <v>-2.7113727929517495E-14</v>
+      </c>
+      <c r="S62" s="31">
+        <f t="shared" si="7"/>
+        <v>-2.7113727929517495E-14</v>
+      </c>
+      <c r="T62" s="31">
+        <f t="shared" si="8"/>
+        <v>-2.7113727929517495E-14</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="22">
         <v>35</v>
       </c>
-      <c r="B63" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A63)</f>
-        <v>#NAME?</v>
+      <c r="B63" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A63)</f>
+        <v>1.194521902436071E-2</v>
       </c>
       <c r="C63" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D63,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlQuoteValue(D63,Model!$E$11:$E$32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="11"/>
@@ -7884,7 +8085,7 @@
         <v>22</v>
       </c>
       <c r="F63" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -7894,13 +8095,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS35Y</v>
       </c>
-      <c r="I63" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J63" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I63" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="J63" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1950000000000001</v>
       </c>
       <c r="K63" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H63,$I$4:$J$4,$I63:$J63,"SCOPE:SERVER"),"--")</f>
@@ -7912,48 +8113,48 @@
       </c>
       <c r="M63" s="5">
         <f>_xll.RtGet(K$4,$H63,$I$4)</f>
-        <v>1.633</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="N63" s="5">
         <f>_xll.RtGet(L$4,$H63,$I$4)</f>
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="O63" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="O63" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P63" t="str">
-        <f>_xll.qlMakeOIS(,E63,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_0083b#0001</v>
-      </c>
-      <c r="Q63" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P63,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E63,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a6f#0000</v>
+      </c>
+      <c r="Q63" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P63,InterestRatesTrigger)</f>
+        <v>1.1961629116022139E-2</v>
       </c>
       <c r="R63" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S63" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T63" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S63" s="31">
+        <f t="shared" si="7"/>
+        <v>1.6410091661429871E-5</v>
+      </c>
+      <c r="T63" s="31">
+        <f t="shared" si="8"/>
+        <v>1.1629116022138924E-5</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="22">
         <v>40</v>
       </c>
-      <c r="B64" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A64)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C64" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D64,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B64" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A64)</f>
+        <v>1.206E-2</v>
+      </c>
+      <c r="C64" s="1">
+        <f>_xll.qlQuoteValue(D64,Model!$E$11:$E$32)</f>
+        <v>1.206E-2</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="11"/>
@@ -7963,8 +8164,8 @@
         <v>23</v>
       </c>
       <c r="F64" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>140</v>
@@ -7973,13 +8174,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS40Y</v>
       </c>
-      <c r="I64" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J64" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I64" s="5">
+        <f t="shared" si="2"/>
+        <v>1.206</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" si="3"/>
+        <v>1.206</v>
       </c>
       <c r="K64" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H64,$I$4:$J$4,$I64:$J64,"SCOPE:SERVER"),"--")</f>
@@ -7991,48 +8192,48 @@
       </c>
       <c r="M64" s="5">
         <f>_xll.RtGet(K$4,$H64,$I$4)</f>
-        <v>1.667</v>
+        <v>1.206</v>
       </c>
       <c r="N64" s="5">
         <f>_xll.RtGet(L$4,$H64,$I$4)</f>
-        <v>1.667</v>
-      </c>
-      <c r="O64" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.206</v>
+      </c>
+      <c r="O64" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P64" t="str">
-        <f>_xll.qlMakeOIS(,E64,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00827#0001</v>
-      </c>
-      <c r="Q64" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P64,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R64" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S64" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T64" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E64,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a64#0000</v>
+      </c>
+      <c r="Q64" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P64,InterestRatesTrigger)</f>
+        <v>1.2059999999980314E-2</v>
+      </c>
+      <c r="R64" s="31">
+        <f t="shared" si="6"/>
+        <v>-1.9685642005384807E-14</v>
+      </c>
+      <c r="S64" s="31">
+        <f t="shared" si="7"/>
+        <v>-1.9685642005384807E-14</v>
+      </c>
+      <c r="T64" s="31">
+        <f t="shared" si="8"/>
+        <v>-1.9685642005384807E-14</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="22">
         <v>50</v>
       </c>
-      <c r="B65" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A65)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C65" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D65,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B65" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A65)</f>
+        <v>1.1760000000000001E-2</v>
+      </c>
+      <c r="C65" s="1">
+        <f>_xll.qlQuoteValue(D65,Model!$E$11:$E$32)</f>
+        <v>1.1760000000000001E-2</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="11"/>
@@ -8042,8 +8243,8 @@
         <v>24</v>
       </c>
       <c r="F65" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>141</v>
@@ -8052,13 +8253,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS50Y</v>
       </c>
-      <c r="I65" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J65" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I65" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="J65" s="5">
+        <f t="shared" si="3"/>
+        <v>1.1759999999999999</v>
       </c>
       <c r="K65" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H65,$I$4:$J$4,$I65:$J65,"SCOPE:SERVER"),"--")</f>
@@ -8070,48 +8271,48 @@
       </c>
       <c r="M65" s="5">
         <f>_xll.RtGet(K$4,$H65,$I$4)</f>
-        <v>1.696</v>
+        <v>1.1759999999999999</v>
       </c>
       <c r="N65" s="5">
         <f>_xll.RtGet(L$4,$H65,$I$4)</f>
-        <v>1.694</v>
-      </c>
-      <c r="O65" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="O65" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P65" t="str">
-        <f>_xll.qlMakeOIS(,E65,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00836#0001</v>
-      </c>
-      <c r="Q65" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P65,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R65" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S65" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T65" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E65,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a6d#0000</v>
+      </c>
+      <c r="Q65" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P65,InterestRatesTrigger)</f>
+        <v>1.1760000000008368E-2</v>
+      </c>
+      <c r="R65" s="31">
+        <f t="shared" si="6"/>
+        <v>8.3665713246361406E-15</v>
+      </c>
+      <c r="S65" s="31">
+        <f t="shared" si="7"/>
+        <v>8.3665713246361406E-15</v>
+      </c>
+      <c r="T65" s="31">
+        <f t="shared" si="8"/>
+        <v>8.3683060481121174E-15</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="22">
         <v>60</v>
       </c>
-      <c r="B66" s="1" t="e">
-        <f ca="1">_xll.qlInterpolationInterpolate(OISInterpolator,$A66)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C66" s="1" t="e">
-        <f ca="1">_xll.qlQuoteValue(D66,Model!$E$11:$E$32)</f>
-        <v>#NAME?</v>
+      <c r="B66" s="1">
+        <f>_xll.qlInterpolationInterpolate(OISInterpolator,$A66)</f>
+        <v>1.1730000000000001E-2</v>
+      </c>
+      <c r="C66" s="1">
+        <f>_xll.qlQuoteValue(D66,Model!$E$11:$E$32)</f>
+        <v>1.1730000000000001E-2</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="11"/>
@@ -8121,8 +8322,8 @@
         <v>25</v>
       </c>
       <c r="F66" s="1" t="b">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>142</v>
@@ -8131,13 +8332,13 @@
         <f t="shared" si="10"/>
         <v>EUROISDDS60Y</v>
       </c>
-      <c r="I66" s="5" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="J66" s="5" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+      <c r="I66" s="5">
+        <f t="shared" si="2"/>
+        <v>1.173</v>
+      </c>
+      <c r="J66" s="5">
+        <f t="shared" si="3"/>
+        <v>1.173</v>
       </c>
       <c r="K66" t="str">
         <f>IF(UPPER(Contribute)="ABCD",_xll.RtContribute(K$4,$H66,$I$4:$J$4,$I66:$J66,"SCOPE:SERVER"),"--")</f>
@@ -8149,35 +8350,35 @@
       </c>
       <c r="M66" s="5">
         <f>_xll.RtGet(K$4,$H66,$I$4)</f>
-        <v>1.72</v>
+        <v>1.173</v>
       </c>
       <c r="N66" s="5">
         <f>_xll.RtGet(L$4,$H66,$I$4)</f>
-        <v>1.72</v>
-      </c>
-      <c r="O66" s="5" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#NAME?</v>
+        <v>1.173</v>
+      </c>
+      <c r="O66" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P66" t="str">
-        <f>_xll.qlMakeOIS(,E66,"eonia",,"0D",,,,EvaluationDate)</f>
-        <v>obj_00825#0001</v>
-      </c>
-      <c r="Q66" s="31" t="e">
-        <f ca="1">_xll.qlOvernightIndexedSwapFairRate(P66,InterestRatesTrigger)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="R66" s="31" t="e">
-        <f t="shared" ca="1" si="6"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="S66" s="31" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#NAME?</v>
-      </c>
-      <c r="T66" s="31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <f>_xll.qlMakeOIS(,,E66,"eonia",,"0D",,,,EvaluationDate)</f>
+        <v>obj_00a8d#0000</v>
+      </c>
+      <c r="Q66" s="31">
+        <f>_xll.qlOvernightIndexedSwapFairRate(P66,InterestRatesTrigger)</f>
+        <v>1.1730000000000032E-2</v>
+      </c>
+      <c r="R66" s="31">
+        <f t="shared" si="6"/>
+        <v>3.1225022567582528E-17</v>
+      </c>
+      <c r="S66" s="31">
+        <f t="shared" si="7"/>
+        <v>3.1225022567582528E-17</v>
+      </c>
+      <c r="T66" s="31">
+        <f t="shared" si="8"/>
+        <v>3.1225022567582528E-17</v>
       </c>
     </row>
   </sheetData>
